--- a/data/hotels_by_city/Houston/Houston_shard_107.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_107.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55456-d534645-Reviews-Comfort_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Suites-Baytown.h1170727.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,743 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r544294433-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>534645</t>
+  </si>
+  <si>
+    <t>544294433</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>Not a great experience</t>
+  </si>
+  <si>
+    <t>My was horrible from the time we checked in till the time we checked out. We checked in and someone had smoked in our room. So they had to clean it. Which is awesome but when you have twin toddlers and they are ready to by ten you would be able to check in no problem. But when we got there are room was not ready, when we did get to the room it was extremely hot for hours due to the machine they had in there to dry the floors. They did give me a discount for that. So I was like okay. The next day we I got on my account to see what we had to use for black Friday shopping. I got on and we had five charges from ranging from 94.67 to 183.00 dollars. I went to the front desk to let them know. They were super nice, she said she need the fax number to my bank and they would get those released due to an error. I called by Saturday I had six pending charges to my account. I had been nice the whole time because the ladies and then guy at the front were really trying to help. By Saturday they were able to get 2 of the charges off out of the six. Yes two of them were going to stay for the room charge but not the other two that...My was horrible from the time we checked in till the time we checked out. We checked in and someone had smoked in our room. So they had to clean it. Which is awesome but when you have twin toddlers and they are ready to by ten you would be able to check in no problem. But when we got there are room was not ready, when we did get to the room it was extremely hot for hours due to the machine they had in there to dry the floors. They did give me a discount for that. So I was like okay. The next day we I got on my account to see what we had to use for black Friday shopping. I got on and we had five charges from ranging from 94.67 to 183.00 dollars. I went to the front desk to let them know. They were super nice, she said she need the fax number to my bank and they would get those released due to an error. I called by Saturday I had six pending charges to my account. I had been nice the whole time because the ladies and then guy at the front were really trying to help. By Saturday they were able to get 2 of the charges off out of the six. Yes two of them were going to stay for the room charge but not the other two that one of the guys didn't know where it came from. He said it was my bank. My bank said there is now way they can charge random amount to my card from a company. Luckily there was a lady that knew other ways to find it. She did and she sent that fax to my back also on Sunday. I finally got all my money back from those charges by Tuesday. During this time also I tried to speak to manager multiple times about the issue but she was never available. My last night there we get to the hotel after 11 pm and we are tired. For some reason we could not get into our room. So I go down stairs show my id and the guy at the desk gives me another key. I go up stars and it wouldn't work. So I go back downstairs. I waited and waited and then my husband calls to let me know that a man had let them in. So I went to go to the elevator. While I was waiting I see the man coming down the stairs. I asked him how if he may know what was going on. He looks at me and says I don't know the science behind the doors and walked away. I was like oh okay. So I checked out. I called Monday still couldn't get ahold of a manager but the lady was nice on the phone and said she would leave her message. The manager did call me back the next day but she was rude. I tried asking if there was more they could do then the 5 percent since everything I went through. She told me no we have done all we can. I guess they gave us a cheaper rate when my brother checked in to get us the rooms. But nothing was done other than the 5 percent the first night. She also said that six charges is normal on a debit card and maybe I should use cash next time if I don't want that to happen. I told her no ma'am I've stay in hotels and I have never been charge six different charges with amounts all over the place not even the same amount. She also said that guy isn't maintenance so he won't know what's wrong with the door. I told her I understood that but he could have responded differently. I asked if I could speak to someone of her because she was so rude. She told me no that she was it. I told her there was no way. There has to be someone that people talk to that aren't happy with management. She told me no she was it and if so she didn't know the number. I told  her okay I will find out who it is and call. The room was nice though a kids pacifier was under are ac unit and was the whole time so that shows they don't clean well. I bet it's still there right now. The staff was nice except the one night guy and the manager. I would not recommend this hotel. If I could give it zero stars I would.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>My was horrible from the time we checked in till the time we checked out. We checked in and someone had smoked in our room. So they had to clean it. Which is awesome but when you have twin toddlers and they are ready to by ten you would be able to check in no problem. But when we got there are room was not ready, when we did get to the room it was extremely hot for hours due to the machine they had in there to dry the floors. They did give me a discount for that. So I was like okay. The next day we I got on my account to see what we had to use for black Friday shopping. I got on and we had five charges from ranging from 94.67 to 183.00 dollars. I went to the front desk to let them know. They were super nice, she said she need the fax number to my bank and they would get those released due to an error. I called by Saturday I had six pending charges to my account. I had been nice the whole time because the ladies and then guy at the front were really trying to help. By Saturday they were able to get 2 of the charges off out of the six. Yes two of them were going to stay for the room charge but not the other two that...My was horrible from the time we checked in till the time we checked out. We checked in and someone had smoked in our room. So they had to clean it. Which is awesome but when you have twin toddlers and they are ready to by ten you would be able to check in no problem. But when we got there are room was not ready, when we did get to the room it was extremely hot for hours due to the machine they had in there to dry the floors. They did give me a discount for that. So I was like okay. The next day we I got on my account to see what we had to use for black Friday shopping. I got on and we had five charges from ranging from 94.67 to 183.00 dollars. I went to the front desk to let them know. They were super nice, she said she need the fax number to my bank and they would get those released due to an error. I called by Saturday I had six pending charges to my account. I had been nice the whole time because the ladies and then guy at the front were really trying to help. By Saturday they were able to get 2 of the charges off out of the six. Yes two of them were going to stay for the room charge but not the other two that one of the guys didn't know where it came from. He said it was my bank. My bank said there is now way they can charge random amount to my card from a company. Luckily there was a lady that knew other ways to find it. She did and she sent that fax to my back also on Sunday. I finally got all my money back from those charges by Tuesday. During this time also I tried to speak to manager multiple times about the issue but she was never available. My last night there we get to the hotel after 11 pm and we are tired. For some reason we could not get into our room. So I go down stairs show my id and the guy at the desk gives me another key. I go up stars and it wouldn't work. So I go back downstairs. I waited and waited and then my husband calls to let me know that a man had let them in. So I went to go to the elevator. While I was waiting I see the man coming down the stairs. I asked him how if he may know what was going on. He looks at me and says I don't know the science behind the doors and walked away. I was like oh okay. So I checked out. I called Monday still couldn't get ahold of a manager but the lady was nice on the phone and said she would leave her message. The manager did call me back the next day but she was rude. I tried asking if there was more they could do then the 5 percent since everything I went through. She told me no we have done all we can. I guess they gave us a cheaper rate when my brother checked in to get us the rooms. But nothing was done other than the 5 percent the first night. She also said that six charges is normal on a debit card and maybe I should use cash next time if I don't want that to happen. I told her no ma'am I've stay in hotels and I have never been charge six different charges with amounts all over the place not even the same amount. She also said that guy isn't maintenance so he won't know what's wrong with the door. I told her I understood that but he could have responded differently. I asked if I could speak to someone of her because she was so rude. She told me no that she was it. I told her there was no way. There has to be someone that people talk to that aren't happy with management. She told me no she was it and if so she didn't know the number. I told  her okay I will find out who it is and call. The room was nice though a kids pacifier was under are ac unit and was the whole time so that shows they don't clean well. I bet it's still there right now. The staff was nice except the one night guy and the manager. I would not recommend this hotel. If I could give it zero stars I would.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r506754596-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>506754596</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Had a great stay</t>
+  </si>
+  <si>
+    <t>Came into town with my family and we had a great stay. Staff was very friendly and courteous. My room was very clean, and the mattress was amazing. We all slept comfortable. The kids had a great time swimming in the pool and they all loved the waffles in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>ComfortSuitesBaytown, Manager at Comfort Suites Baytown, responded to this reviewResponded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Came into town with my family and we had a great stay. Staff was very friendly and courteous. My room was very clean, and the mattress was amazing. We all slept comfortable. The kids had a great time swimming in the pool and they all loved the waffles in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r469734288-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>469734288</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>Very nice room</t>
+  </si>
+  <si>
+    <t>Front desk young man very nice. Really spacious room. Comfortable beds, clean bathroom, great water pressure. Two large mirrors (yay). Internet worked great. Good location and several places to eat nearby. Great AC !!  I've only had one bad experience at a CS. Thought the price was reasonable for the nice spacious room.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r440827280-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>440827280</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stay here 5 or 6 times a year. It is convenient to everything in South Houston. The staff is friendly and most importantly the hotel is clean and comfortable. The rooms are nice and the beds are comfortable. </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r403588730-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>403588730</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>DAMP/STINKY ROOM</t>
+  </si>
+  <si>
+    <t>We were very disappointed in this hotel. After a very long day of travel we were just too tired to complain or ask for another room.  Our room was very large which was about was nice but the smell of dampness/mold/urine not totally sure overwhelmed the room.  We noticed two hanging bags to remove the dampness from the room but they weren't cutting it.  I even sprayed the bed with my Bath and Body works spray to help.  I also did not feel comfortable walking around the room barefooted as everything was sticky.  Will not be staying at this location again.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r387139051-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>387139051</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Ok Stay</t>
+  </si>
+  <si>
+    <t>The location of this hotel is good, Garth Rd has plenty of restaurants, shopping, etc.  Rooms were big but our floors were pretty sticky and looked like they hadn't been swept/cleaned before we checked in (we didn't bother to say anything, the rest of the room was clean).  We had a king room and it had a sitting area but no TV across from the couch, the only TV was in front of the bed.  That made it hard to watch a movie when we all gathered in one room to watch one (we had three separate rooms, family trip).  The water pressure in the shower was good, I always enjoy that when at a hotel.  The breakfast was decent.  The pool looked nice but we didn't have a chance to use it.  Everyone at the front desk, housecleaning, and at breakfast were very nice. Not sure if I'd stay here again or try another hotel in the area if in Baytown again.  It looks like they are building some new ones and updating others.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>The location of this hotel is good, Garth Rd has plenty of restaurants, shopping, etc.  Rooms were big but our floors were pretty sticky and looked like they hadn't been swept/cleaned before we checked in (we didn't bother to say anything, the rest of the room was clean).  We had a king room and it had a sitting area but no TV across from the couch, the only TV was in front of the bed.  That made it hard to watch a movie when we all gathered in one room to watch one (we had three separate rooms, family trip).  The water pressure in the shower was good, I always enjoy that when at a hotel.  The breakfast was decent.  The pool looked nice but we didn't have a chance to use it.  Everyone at the front desk, housecleaning, and at breakfast were very nice. Not sure if I'd stay here again or try another hotel in the area if in Baytown again.  It looks like they are building some new ones and updating others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r344752838-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>344752838</t>
+  </si>
+  <si>
+    <t>02/03/2016</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are working in Baytown this is a nice spot to stay. It's set back from road so is relatively quiet. It's nicely decorated and neat and clean.The workout room as a bike and treadmill with TV all in good working order. There is no fine dining restaurants nearby this hotel. But There is a Starbucks across the parking lot that opens at 5 am. </t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r329044846-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>329044846</t>
+  </si>
+  <si>
+    <t>11/25/2015</t>
+  </si>
+  <si>
+    <t>Local race event</t>
+  </si>
+  <si>
+    <t>Very nice hotel, wish we would've had time to visit the hot tub! Adequate size for our stay. Enjoyed the morning breakfast they offer from 6-9, although they are situated walking distance in the same parking lot to both Denny's and Waffle House. Several plug outlets and even has USB ports on the lamps at bedside!! That's a plus!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>ComfortSuitesBaytown, Manager at Comfort Suites Baytown, responded to this reviewResponded November 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel, wish we would've had time to visit the hot tub! Adequate size for our stay. Enjoyed the morning breakfast they offer from 6-9, although they are situated walking distance in the same parking lot to both Denny's and Waffle House. Several plug outlets and even has USB ports on the lamps at bedside!! That's a plus!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r307793372-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>307793372</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>A little hard to get to but worth the effort. Room was very nice! Clean, comfortable, very quiet to be adjacent to Interstate. Very convinient to shopping and food. Staff was absolutely wonderful, very helpful and friendly- made for an enjoyable stay. Breakfast was very good!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>ComfortSuitesBaytown, Manager at Comfort Suites Baytown, responded to this reviewResponded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2015</t>
+  </si>
+  <si>
+    <t>A little hard to get to but worth the effort. Room was very nice! Clean, comfortable, very quiet to be adjacent to Interstate. Very convinient to shopping and food. Staff was absolutely wonderful, very helpful and friendly- made for an enjoyable stay. Breakfast was very good!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r277523509-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>277523509</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>I didn't get to view the Hotel much but my room needed carpet change or clean.And place a curtain over window at door because the light at night is disturbing.  Other than that, the Hotel is not bad for the rate.  I would stay there again.         MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>ComfortSuitesBaytown, Owner at Comfort Suites Baytown, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>I didn't get to view the Hotel much but my room needed carpet change or clean.And place a curtain over window at door because the light at night is disturbing.  Other than that, the Hotel is not bad for the rate.  I would stay there again.         More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r261148092-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>261148092</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Customer service</t>
+  </si>
+  <si>
+    <t>Front desk clerks  are not trained well.  No  customer  skills, not friendly and rude. Juice machine was broken.  Had request for supplies to be replenished in restroom. Had safe in room for a charge. Loud toilet.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>ComfortSuitesBaytown, Owner at Comfort Suites Baytown, responded to this reviewResponded March 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2015</t>
+  </si>
+  <si>
+    <t>Front desk clerks  are not trained well.  No  customer  skills, not friendly and rude. Juice machine was broken.  Had request for supplies to be replenished in restroom. Had safe in room for a charge. Loud toilet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r259494756-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>259494756</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>Friendly staff, spacious room</t>
+  </si>
+  <si>
+    <t>The staff at this hotel were very friendly and the rooms were spacious. The only issue we had was with the sofa bed. It had a horrible smell, but the issue was fixed once reported. Recommended for families and pet owners. A lot of restaurants and a mall nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortSuitesBaytown, Owner at Comfort Suites Baytown, responded to this reviewResponded March 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2015</t>
+  </si>
+  <si>
+    <t>The staff at this hotel were very friendly and the rooms were spacious. The only issue we had was with the sofa bed. It had a horrible smell, but the issue was fixed once reported. Recommended for families and pet owners. A lot of restaurants and a mall nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r236913593-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>236913593</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>Comfortable room</t>
+  </si>
+  <si>
+    <t>Visited family in the area, stayed at the comfort and got a 2 bed suite. My kids were excited when we checked in. When we got to the room the kids three themselves on the bed, and let me tell you, they are so comfortable. The room was soo clean. When we woke in the morning we had breakfast and it was so good, my kids really liked the waffles. I would recommend this hotel. And one more tidbit the staff was really nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortSuitesBaytown, Manager at Comfort Suites Baytown, responded to this reviewResponded November 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2014</t>
+  </si>
+  <si>
+    <t>Visited family in the area, stayed at the comfort and got a 2 bed suite. My kids were excited when we checked in. When we got to the room the kids three themselves on the bed, and let me tell you, they are so comfortable. The room was soo clean. When we woke in the morning we had breakfast and it was so good, my kids really liked the waffles. I would recommend this hotel. And one more tidbit the staff was really nice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r235803737-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>235803737</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>Great Place &amp; GREAT LOCATION!</t>
+  </si>
+  <si>
+    <t>Right away, I was pleased on how friendly and helpful the staff were. My trip was unplanned, so I didn't know the area very well but I was so grateful that there were nearby restaurants and stores within walking distance. The suite was very comfortable and spacious and the housekeeping was really nice having my room ready when I got there. If you're ever traveling and need a place to stop and rest, this is the best place to go!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>ComfortSuitesBaytown, Manager at Comfort Suites Baytown, responded to this reviewResponded October 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2014</t>
+  </si>
+  <si>
+    <t>Right away, I was pleased on how friendly and helpful the staff were. My trip was unplanned, so I didn't know the area very well but I was so grateful that there were nearby restaurants and stores within walking distance. The suite was very comfortable and spacious and the housekeeping was really nice having my room ready when I got there. If you're ever traveling and need a place to stop and rest, this is the best place to go!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r235584353-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>235584353</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>Very Pleased</t>
+  </si>
+  <si>
+    <t>We were very impressed with our king suite at this hotel. We were greeted with a smile by the front desk clerk the moment we walked through the door. We stayed for 4 days and the friendliness was definitely not a fluke. The room was large and very comfortable. As well, it was kept very clean. We most definitely would stay here again and would recommend to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were very impressed with our king suite at this hotel. We were greeted with a smile by the front desk clerk the moment we walked through the door. We stayed for 4 days and the friendliness was definitely not a fluke. The room was large and very comfortable. As well, it was kept very clean. We most definitely would stay here again and would recommend to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r174762911-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>174762911</t>
+  </si>
+  <si>
+    <t>08/29/2013</t>
+  </si>
+  <si>
+    <t>Nice, Clean Comfort Suites</t>
+  </si>
+  <si>
+    <t>We arrived to find a very well located hotel, that seems to be very well maintained.  The lobby was clean, the front desk clerk that checked us in was polite and professional, and we found the room to be clean and well laid out upon entry.  The large, flat screen TV was great, and it was nice to have plenty of space to spread out...  At about 10:45 we decided to get ready for bed when we discovered the hide-a-bed was not made up with sheets and a blanket and there was no bedding in the closet.  This seemed quite odd as we stay at Comfort Suites properties often and have always found that either the sofa bed is pre-made or there is bedding provided in the closet on the top shelf.  I called the front desk to request that some bedding be brought to our suite, only to be told by the young man at the front desk "You can come and get it, I can't leave."  I guess in this case the customer isn't always right; or perhaps my expectations are just too high.  Speaking of high expectations, breakfast was just a bit disappointing.  There was the standard fare:  waffles, sausage links, scrambled eggs, hard boiled eggs, several unsweetened cereals, fruit, toast, yogurt, etc., what was missing was condiments...  No peanut butter, no hot sauce, no salsa, no strawberry jam...  While these are not main dishes, I had...We arrived to find a very well located hotel, that seems to be very well maintained.  The lobby was clean, the front desk clerk that checked us in was polite and professional, and we found the room to be clean and well laid out upon entry.  The large, flat screen TV was great, and it was nice to have plenty of space to spread out...  At about 10:45 we decided to get ready for bed when we discovered the hide-a-bed was not made up with sheets and a blanket and there was no bedding in the closet.  This seemed quite odd as we stay at Comfort Suites properties often and have always found that either the sofa bed is pre-made or there is bedding provided in the closet on the top shelf.  I called the front desk to request that some bedding be brought to our suite, only to be told by the young man at the front desk "You can come and get it, I can't leave."  I guess in this case the customer isn't always right; or perhaps my expectations are just too high.  Speaking of high expectations, breakfast was just a bit disappointing.  There was the standard fare:  waffles, sausage links, scrambled eggs, hard boiled eggs, several unsweetened cereals, fruit, toast, yogurt, etc., what was missing was condiments...  No peanut butter, no hot sauce, no salsa, no strawberry jam...  While these are not main dishes, I had yet to visit a Comfort Suites that was missing more than one of these items.  Lastly, I will mention that at 5:00 a.m. the telephone rang several times waking us up.  Upon answering there was simply beeps or tones on the other end of the line.  I'm not sure if this was a wake up call arranged by the previous guest or what, but it didn't make us very happy.  I realize this review is a little nit picky, but the other properties in the chain have set the bar just a little higher than Baytown reaches.  I would stay here again, I would know beforehand however what to expect, thus, I wouldn't be disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>We arrived to find a very well located hotel, that seems to be very well maintained.  The lobby was clean, the front desk clerk that checked us in was polite and professional, and we found the room to be clean and well laid out upon entry.  The large, flat screen TV was great, and it was nice to have plenty of space to spread out...  At about 10:45 we decided to get ready for bed when we discovered the hide-a-bed was not made up with sheets and a blanket and there was no bedding in the closet.  This seemed quite odd as we stay at Comfort Suites properties often and have always found that either the sofa bed is pre-made or there is bedding provided in the closet on the top shelf.  I called the front desk to request that some bedding be brought to our suite, only to be told by the young man at the front desk "You can come and get it, I can't leave."  I guess in this case the customer isn't always right; or perhaps my expectations are just too high.  Speaking of high expectations, breakfast was just a bit disappointing.  There was the standard fare:  waffles, sausage links, scrambled eggs, hard boiled eggs, several unsweetened cereals, fruit, toast, yogurt, etc., what was missing was condiments...  No peanut butter, no hot sauce, no salsa, no strawberry jam...  While these are not main dishes, I had...We arrived to find a very well located hotel, that seems to be very well maintained.  The lobby was clean, the front desk clerk that checked us in was polite and professional, and we found the room to be clean and well laid out upon entry.  The large, flat screen TV was great, and it was nice to have plenty of space to spread out...  At about 10:45 we decided to get ready for bed when we discovered the hide-a-bed was not made up with sheets and a blanket and there was no bedding in the closet.  This seemed quite odd as we stay at Comfort Suites properties often and have always found that either the sofa bed is pre-made or there is bedding provided in the closet on the top shelf.  I called the front desk to request that some bedding be brought to our suite, only to be told by the young man at the front desk "You can come and get it, I can't leave."  I guess in this case the customer isn't always right; or perhaps my expectations are just too high.  Speaking of high expectations, breakfast was just a bit disappointing.  There was the standard fare:  waffles, sausage links, scrambled eggs, hard boiled eggs, several unsweetened cereals, fruit, toast, yogurt, etc., what was missing was condiments...  No peanut butter, no hot sauce, no salsa, no strawberry jam...  While these are not main dishes, I had yet to visit a Comfort Suites that was missing more than one of these items.  Lastly, I will mention that at 5:00 a.m. the telephone rang several times waking us up.  Upon answering there was simply beeps or tones on the other end of the line.  I'm not sure if this was a wake up call arranged by the previous guest or what, but it didn't make us very happy.  I realize this review is a little nit picky, but the other properties in the chain have set the bar just a little higher than Baytown reaches.  I would stay here again, I would know beforehand however what to expect, thus, I wouldn't be disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r173324880-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>173324880</t>
+  </si>
+  <si>
+    <t>08/21/2013</t>
+  </si>
+  <si>
+    <t>Never again!!</t>
+  </si>
+  <si>
+    <t>Very rude staff!! Yes Cassie I'm talking about you. Very expensive for what you get. Cheaper hotels in area that are much better. Smelly rooms. Very poor wi-fi. Drops out continuously. Very frustrating. They advertise drycleaning but when i tried to get some stuff cleaned was told they dont do that anymore and that Choice Hotels makes them continue to advertise it. I decided to leave half way through my week long stay and check in elsewhere. Upon checking out I noticed I was charged for using a safe that I did not use. When I explained this and that I wanted it taken off my bill I was told they automatically charge it and that I needed to tell them that I wasnt going to use it when I checked in and there wa nothing they could do now. How was I supposed to know this? Bottom line...Don't waste your time and money hereMoreShow less</t>
+  </si>
+  <si>
+    <t>Very rude staff!! Yes Cassie I'm talking about you. Very expensive for what you get. Cheaper hotels in area that are much better. Smelly rooms. Very poor wi-fi. Drops out continuously. Very frustrating. They advertise drycleaning but when i tried to get some stuff cleaned was told they dont do that anymore and that Choice Hotels makes them continue to advertise it. I decided to leave half way through my week long stay and check in elsewhere. Upon checking out I noticed I was charged for using a safe that I did not use. When I explained this and that I wanted it taken off my bill I was told they automatically charge it and that I needed to tell them that I wasnt going to use it when I checked in and there wa nothing they could do now. How was I supposed to know this? Bottom line...Don't waste your time and money hereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r169434450-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>169434450</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>One night stay Baytown tx</t>
+  </si>
+  <si>
+    <t>This hotel is just fine. All the help were great. It was clean and the food good. Rooms had large scree tv ant the one i had was a suite. Lots of places to eat and shop. The free wifi was great and they also had a computer room you can use. You get a free USA today. Nice lounge. Very good location.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r143925571-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>143925571</t>
+  </si>
+  <si>
+    <t>10/28/2012</t>
+  </si>
+  <si>
+    <t>Comfort Inn at Baytown, Texas, Garth Rd</t>
+  </si>
+  <si>
+    <t>I have family in Baytown so I go there often. For the last 5 years or so I have satyed at this hotel and am never disappointed. Althought the rates are higher than the other places around, for the price, the location and amenities can't be beat. WiFi is free, free hot breakfast, excellent room options such as microwave, coffee maker and frig...all in your sitting area. The pool and hot tub are lit with these amazing lights, clean and private. When I return I will stay here again. Oh and Satrbucks, Walgreen's , Denny's etc. and the mall are all w/in walking distance. Free parking too.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r139490219-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>139490219</t>
+  </si>
+  <si>
+    <t>09/05/2012</t>
+  </si>
+  <si>
+    <t>Don't stay here NASTY and RUDE!!!</t>
+  </si>
+  <si>
+    <t>We where traveling and needed a place to stay that would allow a late check out. I called and asked if a late check out was possible she said yes. We checked in late that afternoon. The 1st room we where put in had the worse smell to it. It was hot the sheets smelt bad and the floors felt wet. We requested to change rooms. They gave us another room that they sprayed down before we moved over then it was over kill. When we went to shower there was hair in the shower and it wad not hair from someones head. The towels even had hair in them. It was so nasty and not clean. Later that night we went to the hot tub. There was a couple with a dog. They had put the dog in the hot tub and pool. Dog hair everywhere!! We start talking to them come to find out it was a worker grandson his girlfriend and one of there friends showed up later. They said that they get pool privileges because his grandmother works there. In return we get to enjoy teenagers a dog and dog hair great! I call down that morning to confirm our late check out and we where told no! I explained that's the reason we stayed there. She did not care one bit. I told her I would remember this and that we travel this area very...We where traveling and needed a place to stay that would allow a late check out. I called and asked if a late check out was possible she said yes. We checked in late that afternoon. The 1st room we where put in had the worse smell to it. It was hot the sheets smelt bad and the floors felt wet. We requested to change rooms. They gave us another room that they sprayed down before we moved over then it was over kill. When we went to shower there was hair in the shower and it wad not hair from someones head. The towels even had hair in them. It was so nasty and not clean. Later that night we went to the hot tub. There was a couple with a dog. They had put the dog in the hot tub and pool. Dog hair everywhere!! We start talking to them come to find out it was a worker grandson his girlfriend and one of there friends showed up later. They said that they get pool privileges because his grandmother works there. In return we get to enjoy teenagers a dog and dog hair great! I call down that morning to confirm our late check out and we where told no! I explained that's the reason we stayed there. She did not care one bit. I told her I would remember this and that we travel this area very often. Her response was OK! She did not care one bit that we will never stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>We where traveling and needed a place to stay that would allow a late check out. I called and asked if a late check out was possible she said yes. We checked in late that afternoon. The 1st room we where put in had the worse smell to it. It was hot the sheets smelt bad and the floors felt wet. We requested to change rooms. They gave us another room that they sprayed down before we moved over then it was over kill. When we went to shower there was hair in the shower and it wad not hair from someones head. The towels even had hair in them. It was so nasty and not clean. Later that night we went to the hot tub. There was a couple with a dog. They had put the dog in the hot tub and pool. Dog hair everywhere!! We start talking to them come to find out it was a worker grandson his girlfriend and one of there friends showed up later. They said that they get pool privileges because his grandmother works there. In return we get to enjoy teenagers a dog and dog hair great! I call down that morning to confirm our late check out and we where told no! I explained that's the reason we stayed there. She did not care one bit. I told her I would remember this and that we travel this area very...We where traveling and needed a place to stay that would allow a late check out. I called and asked if a late check out was possible she said yes. We checked in late that afternoon. The 1st room we where put in had the worse smell to it. It was hot the sheets smelt bad and the floors felt wet. We requested to change rooms. They gave us another room that they sprayed down before we moved over then it was over kill. When we went to shower there was hair in the shower and it wad not hair from someones head. The towels even had hair in them. It was so nasty and not clean. Later that night we went to the hot tub. There was a couple with a dog. They had put the dog in the hot tub and pool. Dog hair everywhere!! We start talking to them come to find out it was a worker grandson his girlfriend and one of there friends showed up later. They said that they get pool privileges because his grandmother works there. In return we get to enjoy teenagers a dog and dog hair great! I call down that morning to confirm our late check out and we where told no! I explained that's the reason we stayed there. She did not care one bit. I told her I would remember this and that we travel this area very often. Her response was OK! She did not care one bit that we will never stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r138821809-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>138821809</t>
+  </si>
+  <si>
+    <t>08/29/2012</t>
+  </si>
+  <si>
+    <t>Fabulous Place to Stay!</t>
+  </si>
+  <si>
+    <t>I Love this Property!!!The staff is soo nice and helpful. The breakfast is FREE and is quite impressive. Lots to choose from and tastes very good! The hotel lobby  is very beautiful. The rooms are clean, and spacious. The beds are comfortable.I slept very well. I will be back to this hotel very soon!!Price was good.. Lower than some in the area. But you still got the quality!</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r127893745-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>127893745</t>
+  </si>
+  <si>
+    <t>04/14/2012</t>
+  </si>
+  <si>
+    <t>dont miss out on this one!</t>
+  </si>
+  <si>
+    <t>the staff at this location are always very friendly &amp; helpful. you can expect clean rooms, etc.cassie who usually works the morning she goes out of her way to accomadate the patrons. the hotel is very beautiful inside, and the outside is kept clean as well. you will most certainly enjoy your stay. there are many restaurants to choose from in the area , they also serve a great breakfast as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>csbaytown, General Manager at Comfort Suites Baytown, responded to this reviewResponded May 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2012</t>
+  </si>
+  <si>
+    <t>the staff at this location are always very friendly &amp; helpful. you can expect clean rooms, etc.cassie who usually works the morning she goes out of her way to accomadate the patrons. the hotel is very beautiful inside, and the outside is kept clean as well. you will most certainly enjoy your stay. there are many restaurants to choose from in the area , they also serve a great breakfast as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r126185090-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>126185090</t>
+  </si>
+  <si>
+    <t>03/16/2012</t>
+  </si>
+  <si>
+    <t>Excellent Staff</t>
+  </si>
+  <si>
+    <t>I had my first experience with Comfort Suites in Baytown Texas on a business trip that was supposed to be a one night event.  I stayed at another hotel nearby the first night and felt it was too expensive.The Comfort Suites in and of itself was a great value, but it was the excellent staff that made me come back nightly, and they were my main reason for returning.  I had explained my reason for having to continue to stay and they sort of became like family in wishing me he best in my endeavor.Should I return to Baytown, I will again stay there.  I also joined their Choiceprivileges program as a result of that stay and it is all because of the staff in Baytown.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I had my first experience with Comfort Suites in Baytown Texas on a business trip that was supposed to be a one night event.  I stayed at another hotel nearby the first night and felt it was too expensive.The Comfort Suites in and of itself was a great value, but it was the excellent staff that made me come back nightly, and they were my main reason for returning.  I had explained my reason for having to continue to stay and they sort of became like family in wishing me he best in my endeavor.Should I return to Baytown, I will again stay there.  I also joined their Choiceprivileges program as a result of that stay and it is all because of the staff in Baytown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r124432977-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>124432977</t>
+  </si>
+  <si>
+    <t>02/11/2012</t>
+  </si>
+  <si>
+    <t>Great place along I-10</t>
+  </si>
+  <si>
+    <t>Everything about this Comfort Inn was comfortable.  Nice big room with a sitting area.  Decent eggs at breakfast, close to restaurants, and the best thing of all was April at the front desk.  Always there seemingly, and always ready to help solve whatever problem might arise.  Great service!  April is fantastic!</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r117422339-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>117422339</t>
+  </si>
+  <si>
+    <t>08/29/2011</t>
+  </si>
+  <si>
+    <t>Great hotel with very great staff.</t>
+  </si>
+  <si>
+    <t>Cafe, the front desk lady did a very great job of making me and my co-worker here on business, great.  She was always courteous and willing to help whenever we had a request.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>cdockerybaytown, Front Office Manager at Comfort Suites Baytown, responded to this reviewResponded September 7, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2011</t>
+  </si>
+  <si>
+    <t>Cafe, the front desk lady did a very great job of making me and my co-worker here on business, great.  She was always courteous and willing to help whenever we had a request.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r113174349-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>113174349</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>Quiet hotel, front desk personnel</t>
+  </si>
+  <si>
+    <t>While we enjoyed our stay at this hotel, our first impression was less than stellar.  The front desk clerk was visiting with her sister and her sister's children on our arrival.  The visitors had just gotten out of the pool.  The sister apparently works at the hotel next door and does not like the pool so she brings her children to this hotel to swim.  The clerk finially greeted us after she played with her niece and gave her some candy.  The clerk stated she usually makes cookies in the afternoon for the guests and makes sure her niece gets some.  I went down through the lobby several times that evening and never did see any cookies.  I asked her about them and she managed to get off of her phone long enough to shrug her shoulders when I asked, jokingly about the cookies.  She did not leave a good first impression of the hotel.  It did not seem at all like she cared about the guests.  When we had some questions about venue location for Bayou bowl events, she had not idea what I was talking about.  The pool had areas under the waterfalls that were caked with something.  When we went in the pool on Saturday morning after 9am, the bugs had not been scooped out and we had to do it.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>While we enjoyed our stay at this hotel, our first impression was less than stellar.  The front desk clerk was visiting with her sister and her sister's children on our arrival.  The visitors had just gotten out of the pool.  The sister apparently works at the hotel next door and does not like the pool so she brings her children to this hotel to swim.  The clerk finially greeted us after she played with her niece and gave her some candy.  The clerk stated she usually makes cookies in the afternoon for the guests and makes sure her niece gets some.  I went down through the lobby several times that evening and never did see any cookies.  I asked her about them and she managed to get off of her phone long enough to shrug her shoulders when I asked, jokingly about the cookies.  She did not leave a good first impression of the hotel.  It did not seem at all like she cared about the guests.  When we had some questions about venue location for Bayou bowl events, she had not idea what I was talking about.  The pool had areas under the waterfalls that were caked with something.  When we went in the pool on Saturday morning after 9am, the bugs had not been scooped out and we had to do it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r61040413-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>61040413</t>
+  </si>
+  <si>
+    <t>04/11/2010</t>
+  </si>
+  <si>
+    <t>Very Surprised</t>
+  </si>
+  <si>
+    <t>We stayed at the Comfort Suites-Baytown for two nights while attending a wedding nearby. I did not see any of the problems reported by previous reviewers. I was impressed with the building, room, and service. I did think the regular price of the room was a little high but we received a group discount that brought the price down to reasonable. After seeing the cleanliness of the hotel I think that the regular price might even be worth the money!
+The first thing that struck us as we walked into the lobby was a clean, lemony smell. Service at check-in was great. We were early but our room was ready so we were given our keys. The room was just as clean! The bed was one of the most comfortable I've ever slept in. I opened my door in the afternoon to the smell of fresh baked cookies. They were still warm when I made it down to the lobby. 
+Breakfast was about average. They had the usual breads and cereals then also an egg, meat, and waffle iron. 
+The location was very close to major roads. We were on the road-side of the building but were not bothered by traffic sounds. The parking lot was well lit and seemed very safe. 
+Some unusual requests were made by members of our group and the front desk staff went out of their way to accommodate our needs. They were more than...We stayed at the Comfort Suites-Baytown for two nights while attending a wedding nearby. I did not see any of the problems reported by previous reviewers. I was impressed with the building, room, and service. I did think the regular price of the room was a little high but we received a group discount that brought the price down to reasonable. After seeing the cleanliness of the hotel I think that the regular price might even be worth the money!The first thing that struck us as we walked into the lobby was a clean, lemony smell. Service at check-in was great. We were early but our room was ready so we were given our keys. The room was just as clean! The bed was one of the most comfortable I've ever slept in. I opened my door in the afternoon to the smell of fresh baked cookies. They were still warm when I made it down to the lobby. Breakfast was about average. They had the usual breads and cereals then also an egg, meat, and waffle iron. The location was very close to major roads. We were on the road-side of the building but were not bothered by traffic sounds. The parking lot was well lit and seemed very safe. Some unusual requests were made by members of our group and the front desk staff went out of their way to accommodate our needs. They were more than friendly and helpful. Also, we tried to request that our bed not be made and the floor vacuumed since we were only staying two nights but the Hotel housekeeper's conscience wouldn't let her leave until she just cleaned "just one more thing." We wanted to make things easier for her but she insisted she do her best job. There is a small pool, a hot tub, and a fitness center located at the first floor level. Several restaurants are within walking distance. I was very happy with this hotel stay and would return here if I find myself in Baytown again!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>CDoc2010, Manager at Comfort Suites Baytown, responded to this reviewResponded April 26, 2011</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2011</t>
+  </si>
+  <si>
+    <t>We stayed at the Comfort Suites-Baytown for two nights while attending a wedding nearby. I did not see any of the problems reported by previous reviewers. I was impressed with the building, room, and service. I did think the regular price of the room was a little high but we received a group discount that brought the price down to reasonable. After seeing the cleanliness of the hotel I think that the regular price might even be worth the money!
+The first thing that struck us as we walked into the lobby was a clean, lemony smell. Service at check-in was great. We were early but our room was ready so we were given our keys. The room was just as clean! The bed was one of the most comfortable I've ever slept in. I opened my door in the afternoon to the smell of fresh baked cookies. They were still warm when I made it down to the lobby. 
+Breakfast was about average. They had the usual breads and cereals then also an egg, meat, and waffle iron. 
+The location was very close to major roads. We were on the road-side of the building but were not bothered by traffic sounds. The parking lot was well lit and seemed very safe. 
+Some unusual requests were made by members of our group and the front desk staff went out of their way to accommodate our needs. They were more than...We stayed at the Comfort Suites-Baytown for two nights while attending a wedding nearby. I did not see any of the problems reported by previous reviewers. I was impressed with the building, room, and service. I did think the regular price of the room was a little high but we received a group discount that brought the price down to reasonable. After seeing the cleanliness of the hotel I think that the regular price might even be worth the money!The first thing that struck us as we walked into the lobby was a clean, lemony smell. Service at check-in was great. We were early but our room was ready so we were given our keys. The room was just as clean! The bed was one of the most comfortable I've ever slept in. I opened my door in the afternoon to the smell of fresh baked cookies. They were still warm when I made it down to the lobby. Breakfast was about average. They had the usual breads and cereals then also an egg, meat, and waffle iron. The location was very close to major roads. We were on the road-side of the building but were not bothered by traffic sounds. The parking lot was well lit and seemed very safe. Some unusual requests were made by members of our group and the front desk staff went out of their way to accommodate our needs. They were more than friendly and helpful. Also, we tried to request that our bed not be made and the floor vacuumed since we were only staying two nights but the Hotel housekeeper's conscience wouldn't let her leave until she just cleaned "just one more thing." We wanted to make things easier for her but she insisted she do her best job. There is a small pool, a hot tub, and a fitness center located at the first floor level. Several restaurants are within walking distance. I was very happy with this hotel stay and would return here if I find myself in Baytown again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r48514949-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>48514949</t>
+  </si>
+  <si>
+    <t>11/04/2009</t>
+  </si>
+  <si>
+    <t>Modern, Clean, and great service</t>
+  </si>
+  <si>
+    <t>I come to Baytown frequently for business and decided to try the Comfort Suites. It is easily the nicest hotel I have stayed at in Baytown. The rooms are large, clean, and well designed. The public areas are beautiful and all the amenities were included.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r47498887-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>47498887</t>
+  </si>
+  <si>
+    <t>10/22/2009</t>
+  </si>
+  <si>
+    <t>Won't stay again!</t>
+  </si>
+  <si>
+    <t>Stay next door or elsewhere, not worth the price paid!!MoreShow less</t>
+  </si>
+  <si>
+    <t>CDoc2010, Manager at Comfort Suites Baytown, responded to this reviewResponded April 25, 2011</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2011</t>
+  </si>
+  <si>
+    <t>Stay next door or elsewhere, not worth the price paid!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r34365137-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>34365137</t>
+  </si>
+  <si>
+    <t>07/09/2009</t>
+  </si>
+  <si>
+    <t>Excellent choice</t>
+  </si>
+  <si>
+    <t>Stayed several weeks at this great hotel on business. Super clean, friendly staff and overall well managed hotel. I like the fact that it is not  located right on top of the interstate like many hotels I've stayed. Being a couple of hundred yards away created a quieter experience. I preferred the upper north side which had a nice view  of green fields.Very quiet.  All of the best restaurants and stores are conviently located. My coworkers also use this same hotel and recommended it to me. It's new, reasonably priced and really nice. Has LCD television, sofa area, refridge and microwave.  Easy wireless access at no extra charge. Nice excercise room and the pool is really clean and fairly private. I found the breakfast bar better than average  and well attended. The waffle maker is great and the brewed coffee is rich (better than starbucks imho). I've stayed at many hotels in this price range over the past year and this is my favorite. Very nice and highly recommend. Oh yeah, 25 minutes from downtown Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>Stayed several weeks at this great hotel on business. Super clean, friendly staff and overall well managed hotel. I like the fact that it is not  located right on top of the interstate like many hotels I've stayed. Being a couple of hundred yards away created a quieter experience. I preferred the upper north side which had a nice view  of green fields.Very quiet.  All of the best restaurants and stores are conviently located. My coworkers also use this same hotel and recommended it to me. It's new, reasonably priced and really nice. Has LCD television, sofa area, refridge and microwave.  Easy wireless access at no extra charge. Nice excercise room and the pool is really clean and fairly private. I found the breakfast bar better than average  and well attended. The waffle maker is great and the brewed coffee is rich (better than starbucks imho). I've stayed at many hotels in this price range over the past year and this is my favorite. Very nice and highly recommend. Oh yeah, 25 minutes from downtown Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r5029811-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>5029811</t>
+  </si>
+  <si>
+    <t>05/01/2006</t>
+  </si>
+  <si>
+    <t>Clean Hotel</t>
+  </si>
+  <si>
+    <t>Stayed at the Comfort Suites for 4 nights and found the place very  clean.  The rooms were spacious with two queen beds and a pull out sofa.  The breakfast was better than average, one morning they had scrambled eggs and sausages.  The outside pool looked very nice even thou we didn't use it.  There are numerous restaurants nearby, some within walking distance.  The morning clerk could have been a little more friendly although the night clerk was very friendly and sociable.  The price was a  little  more than other motels within the area but I would definitely stay again because of the cleanliness.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r3536348-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>3536348</t>
+  </si>
+  <si>
+    <t>06/06/2005</t>
+  </si>
+  <si>
+    <t>Nice, clean, new</t>
+  </si>
+  <si>
+    <t>Noting much to say, the hotel has what any business traveler is looking for...  A clean room, cookies at checkin, continential breakfast, Wired and Wireless High Speed Internet access is free.  Since it's a new hotel, the beds are still comfortable, the rooms are clean, and the carpet isn't gross.  A short drive to the Houston shipping channel industrial parks.The continental breakfast was only average.  Normal assortment of muffins, pastries, and bagels.  They had a waffle maker that made waffles in the shape of Texas.  What is it about Texas?</t>
+  </si>
+  <si>
+    <t>June 2005</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r3329726-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>3329726</t>
+  </si>
+  <si>
+    <t>04/03/2005</t>
+  </si>
+  <si>
+    <t>new hotel in area</t>
+  </si>
+  <si>
+    <t>The rooms are typical for a newer comfort suites.  The front desk person was particularly helpful in finding a room that would work for us as well as dinner recommendations.  The cookies at check-in were a nice touch.  The pool and hot tub were outside and it was a bit too cool for us to try it.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1275,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1307,2220 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>102</v>
+      </c>
+      <c r="X9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>120</v>
+      </c>
+      <c r="X11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>129</v>
+      </c>
+      <c r="X12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>137</v>
+      </c>
+      <c r="X13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" t="s">
+        <v>154</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>155</v>
+      </c>
+      <c r="X15" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>155</v>
+      </c>
+      <c r="X16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" t="s">
+        <v>168</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>169</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s">
+        <v>175</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>169</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>182</v>
+      </c>
+      <c r="O19" t="s">
+        <v>183</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>189</v>
+      </c>
+      <c r="O20" t="s">
+        <v>183</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O22" t="s">
+        <v>183</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>207</v>
+      </c>
+      <c r="O23" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>208</v>
+      </c>
+      <c r="X23" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>212</v>
+      </c>
+      <c r="J24" t="s">
+        <v>213</v>
+      </c>
+      <c r="K24" t="s">
+        <v>214</v>
+      </c>
+      <c r="L24" t="s">
+        <v>215</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>216</v>
+      </c>
+      <c r="O24" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>208</v>
+      </c>
+      <c r="X24" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>219</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>223</v>
+      </c>
+      <c r="O25" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>225</v>
+      </c>
+      <c r="J26" t="s">
+        <v>226</v>
+      </c>
+      <c r="K26" t="s">
+        <v>227</v>
+      </c>
+      <c r="L26" t="s">
+        <v>228</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>229</v>
+      </c>
+      <c r="O26" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>230</v>
+      </c>
+      <c r="X26" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J27" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" t="s">
+        <v>236</v>
+      </c>
+      <c r="L27" t="s">
+        <v>237</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>238</v>
+      </c>
+      <c r="O27" t="s">
+        <v>82</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" t="s">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>245</v>
+      </c>
+      <c r="O28" t="s">
+        <v>82</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>246</v>
+      </c>
+      <c r="X28" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>256</v>
+      </c>
+      <c r="J30" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" t="s">
+        <v>258</v>
+      </c>
+      <c r="L30" t="s">
+        <v>259</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>254</v>
+      </c>
+      <c r="O30" t="s">
+        <v>75</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>260</v>
+      </c>
+      <c r="X30" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>264</v>
+      </c>
+      <c r="J31" t="s">
+        <v>265</v>
+      </c>
+      <c r="K31" t="s">
+        <v>266</v>
+      </c>
+      <c r="L31" t="s">
+        <v>267</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>268</v>
+      </c>
+      <c r="O31" t="s">
+        <v>75</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>271</v>
+      </c>
+      <c r="J32" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s">
+        <v>274</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>276</v>
+      </c>
+      <c r="J33" t="s">
+        <v>277</v>
+      </c>
+      <c r="K33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L33" t="s">
+        <v>279</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>280</v>
+      </c>
+      <c r="O33" t="s">
+        <v>75</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>282</v>
+      </c>
+      <c r="J34" t="s">
+        <v>283</v>
+      </c>
+      <c r="K34" t="s">
+        <v>284</v>
+      </c>
+      <c r="L34" t="s">
+        <v>285</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_107.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_107.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="440">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,87 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r610608571-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>534645</t>
+  </si>
+  <si>
+    <t>610608571</t>
+  </si>
+  <si>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>Offers as expected</t>
+  </si>
+  <si>
+    <t>Rooms are nice, although a very nousy airconditioning. Staff is really nice. The swimming pool is just what you need After a hard day work. I do not recommand the breakfast, you have better place nearby.The environment is not really welcoming you to take a walk, big lanes, big cars, big shops, very usa...Prive value wise, it is a match.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r578277489-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>578277489</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>getting our of the house</t>
+  </si>
+  <si>
+    <t>My family and I decided to stay at a hotel for the night so the kids could go swimming and have a little fun. We decided to stay at the comfort suites because it looked like a nice place and with in budget. The kids had a lot of fun swimming and we ordered take out and had a movie night in the hotel room. The room is very spacious for our family of 5, and they are clean. Breakfast in the morning is good, we really enjoyed the waffles. Everyone here is so nice and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>ComfortSuitesBaytown, Manager at Comfort Suites Baytown, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2018</t>
+  </si>
+  <si>
+    <t>My family and I decided to stay at a hotel for the night so the kids could go swimming and have a little fun. We decided to stay at the comfort suites because it looked like a nice place and with in budget. The kids had a lot of fun swimming and we ordered take out and had a movie night in the hotel room. The room is very spacious for our family of 5, and they are clean. Breakfast in the morning is good, we really enjoyed the waffles. Everyone here is so nice and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r578276150-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>578276150</t>
+  </si>
+  <si>
+    <t>Best hotel in Baytown so far</t>
+  </si>
+  <si>
+    <t>I had a great stay in Baytown visiting with family. We decided to stay at the Comfort Suites and my husband and I had a very comfortable stay. The rooms are very large and clean and comfy. The pillows are AMAZING!! The front desk staff was so nice and helpful and our housekeeper did a very good job cleaning our room.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>I had a great stay in Baytown visiting with family. We decided to stay at the Comfort Suites and my husband and I had a very comfortable stay. The rooms are very large and clean and comfy. The pillows are AMAZING!! The front desk staff was so nice and helpful and our housekeeper did a very good job cleaning our room.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r544294433-Comfort_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
-    <t>55456</t>
-  </si>
-  <si>
-    <t>534645</t>
-  </si>
-  <si>
     <t>544294433</t>
   </si>
   <si>
@@ -174,9 +243,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>My was horrible from the time we checked in till the time we checked out. We checked in and someone had smoked in our room. So they had to clean it. Which is awesome but when you have twin toddlers and they are ready to by ten you would be able to check in no problem. But when we got there are room was not ready, when we did get to the room it was extremely hot for hours due to the machine they had in there to dry the floors. They did give me a discount for that. So I was like okay. The next day we I got on my account to see what we had to use for black Friday shopping. I got on and we had five charges from ranging from 94.67 to 183.00 dollars. I went to the front desk to let them know. They were super nice, she said she need the fax number to my bank and they would get those released due to an error. I called by Saturday I had six pending charges to my account. I had been nice the whole time because the ladies and then guy at the front were really trying to help. By Saturday they were able to get 2 of the charges off out of the six. Yes two of them were going to stay for the room charge but not the other two that...My was horrible from the time we checked in till the time we checked out. We checked in and someone had smoked in our room. So they had to clean it. Which is awesome but when you have twin toddlers and they are ready to by ten you would be able to check in no problem. But when we got there are room was not ready, when we did get to the room it was extremely hot for hours due to the machine they had in there to dry the floors. They did give me a discount for that. So I was like okay. The next day we I got on my account to see what we had to use for black Friday shopping. I got on and we had five charges from ranging from 94.67 to 183.00 dollars. I went to the front desk to let them know. They were super nice, she said she need the fax number to my bank and they would get those released due to an error. I called by Saturday I had six pending charges to my account. I had been nice the whole time because the ladies and then guy at the front were really trying to help. By Saturday they were able to get 2 of the charges off out of the six. Yes two of them were going to stay for the room charge but not the other two that one of the guys didn't know where it came from. He said it was my bank. My bank said there is now way they can charge random amount to my card from a company. Luckily there was a lady that knew other ways to find it. She did and she sent that fax to my back also on Sunday. I finally got all my money back from those charges by Tuesday. During this time also I tried to speak to manager multiple times about the issue but she was never available. My last night there we get to the hotel after 11 pm and we are tired. For some reason we could not get into our room. So I go down stairs show my id and the guy at the desk gives me another key. I go up stars and it wouldn't work. So I go back downstairs. I waited and waited and then my husband calls to let me know that a man had let them in. So I went to go to the elevator. While I was waiting I see the man coming down the stairs. I asked him how if he may know what was going on. He looks at me and says I don't know the science behind the doors and walked away. I was like oh okay. So I checked out. I called Monday still couldn't get ahold of a manager but the lady was nice on the phone and said she would leave her message. The manager did call me back the next day but she was rude. I tried asking if there was more they could do then the 5 percent since everything I went through. She told me no we have done all we can. I guess they gave us a cheaper rate when my brother checked in to get us the rooms. But nothing was done other than the 5 percent the first night. She also said that six charges is normal on a debit card and maybe I should use cash next time if I don't want that to happen. I told her no ma'am I've stay in hotels and I have never been charge six different charges with amounts all over the place not even the same amount. She also said that guy isn't maintenance so he won't know what's wrong with the door. I told her I understood that but he could have responded differently. I asked if I could speak to someone of her because she was so rude. She told me no that she was it. I told her there was no way. There has to be someone that people talk to that aren't happy with management. She told me no she was it and if so she didn't know the number. I told  her okay I will find out who it is and call. The room was nice though a kids pacifier was under are ac unit and was the whole time so that shows they don't clean well. I bet it's still there right now. The staff was nice except the one night guy and the manager. I would not recommend this hotel. If I could give it zero stars I would.More</t>
   </si>
   <si>
@@ -225,6 +291,64 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r461559610-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>461559610</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Baytown visit</t>
+  </si>
+  <si>
+    <t>So I went to Baytown as I had some friends in the area and Louisiana and for a cheap stay I decided to stay hear. It's like a travelodge (UK) so you can't expect av5 star hotel. 
+However, I was happy with the basic amenities they had and what was round the area. 
+The room was very spacious, with a mini kitchen area meaning, a fridge (not stocked) and microwave. Spacious bed, in room safe and decent size room overall. 
+Bedding and room was cleaned everyday, no flaws with that. 
+They have a small pool which was nice to chill by, a small gym area which I didn't use but I saw people using it and an "office" area to print out your boarding pass and use the PC for internet etc. I'm sure they had fax but hey, who uses those these days?!
+The breakfast was very basic, simple enough and my favourite was the waffle machine! You can make your own! Yummm!! 
+There's a small store by reception with basic basic treats and snacks. 
+The receptionist was VERY helpful, she gave me directions, called a taxi and assisted me urgently when I locked myself out of my safe the night before I had to fly back. My passport was in there and so the service was excellent and maintenance came round as soon as he could on a Sunday! 
+Around the area is a petrol/gas station- so you...So I went to Baytown as I had some friends in the area and Louisiana and for a cheap stay I decided to stay hear. It's like a travelodge (UK) so you can't expect av5 star hotel. However, I was happy with the basic amenities they had and what was round the area. The room was very spacious, with a mini kitchen area meaning, a fridge (not stocked) and microwave. Spacious bed, in room safe and decent size room overall. Bedding and room was cleaned everyday, no flaws with that. They have a small pool which was nice to chill by, a small gym area which I didn't use but I saw people using it and an "office" area to print out your boarding pass and use the PC for internet etc. I'm sure they had fax but hey, who uses those these days?!The breakfast was very basic, simple enough and my favourite was the waffle machine! You can make your own! Yummm!! There's a small store by reception with basic basic treats and snacks. The receptionist was VERY helpful, she gave me directions, called a taxi and assisted me urgently when I locked myself out of my safe the night before I had to fly back. My passport was in there and so the service was excellent and maintenance came round as soon as he could on a Sunday! Around the area is a petrol/gas station- so you can guess what you can get there plus there's a Starbucks too. All within a 5 minute walking area.Im giving this 3 stars because it's not a high end hotel/motel. I'd say the travelodge is 1 star better. So if you're stopping in the area, then this can be an option! MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>So I went to Baytown as I had some friends in the area and Louisiana and for a cheap stay I decided to stay hear. It's like a travelodge (UK) so you can't expect av5 star hotel. 
+However, I was happy with the basic amenities they had and what was round the area. 
+The room was very spacious, with a mini kitchen area meaning, a fridge (not stocked) and microwave. Spacious bed, in room safe and decent size room overall. 
+Bedding and room was cleaned everyday, no flaws with that. 
+They have a small pool which was nice to chill by, a small gym area which I didn't use but I saw people using it and an "office" area to print out your boarding pass and use the PC for internet etc. I'm sure they had fax but hey, who uses those these days?!
+The breakfast was very basic, simple enough and my favourite was the waffle machine! You can make your own! Yummm!! 
+There's a small store by reception with basic basic treats and snacks. 
+The receptionist was VERY helpful, she gave me directions, called a taxi and assisted me urgently when I locked myself out of my safe the night before I had to fly back. My passport was in there and so the service was excellent and maintenance came round as soon as he could on a Sunday! 
+Around the area is a petrol/gas station- so you...So I went to Baytown as I had some friends in the area and Louisiana and for a cheap stay I decided to stay hear. It's like a travelodge (UK) so you can't expect av5 star hotel. However, I was happy with the basic amenities they had and what was round the area. The room was very spacious, with a mini kitchen area meaning, a fridge (not stocked) and microwave. Spacious bed, in room safe and decent size room overall. Bedding and room was cleaned everyday, no flaws with that. They have a small pool which was nice to chill by, a small gym area which I didn't use but I saw people using it and an "office" area to print out your boarding pass and use the PC for internet etc. I'm sure they had fax but hey, who uses those these days?!The breakfast was very basic, simple enough and my favourite was the waffle machine! You can make your own! Yummm!! There's a small store by reception with basic basic treats and snacks. The receptionist was VERY helpful, she gave me directions, called a taxi and assisted me urgently when I locked myself out of my safe the night before I had to fly back. My passport was in there and so the service was excellent and maintenance came round as soon as he could on a Sunday! Around the area is a petrol/gas station- so you can guess what you can get there plus there's a Starbucks too. All within a 5 minute walking area.Im giving this 3 stars because it's not a high end hotel/motel. I'd say the travelodge is 1 star better. So if you're stopping in the area, then this can be an option! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r441593287-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>441593287</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>Good for short stay</t>
+  </si>
+  <si>
+    <t>We stayed here for a couple of days - The rooms are fine, basic, small kitchen (not equipped) with quite a large room and cleaned daily!They provide breakfast which is very small selection however everything you need! The staff were incredibly friendly and helpful.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r440827280-Comfort_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -243,9 +367,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r403588730-Comfort_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -288,6 +409,45 @@
     <t>The location of this hotel is good, Garth Rd has plenty of restaurants, shopping, etc.  Rooms were big but our floors were pretty sticky and looked like they hadn't been swept/cleaned before we checked in (we didn't bother to say anything, the rest of the room was clean).  We had a king room and it had a sitting area but no TV across from the couch, the only TV was in front of the bed.  That made it hard to watch a movie when we all gathered in one room to watch one (we had three separate rooms, family trip).  The water pressure in the shower was good, I always enjoy that when at a hotel.  The breakfast was decent.  The pool looked nice but we didn't have a chance to use it.  Everyone at the front desk, housecleaning, and at breakfast were very nice. Not sure if I'd stay here again or try another hotel in the area if in Baytown again.  It looks like they are building some new ones and updating others.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r382034157-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>382034157</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Stink, stank, stunk!</t>
+  </si>
+  <si>
+    <t>"In order to prepare yourself for a stay at this hotel you should sleep with a diaper that has been soaking in urine for a few days.  The room stank!  When I asked for another room the lady at the desk obliged, but made no effort to check the room or ask questions.  She simply gave us another room, which smelled no better.  I assume all the rooms smell the same because she seemed indifferent to my complaint.  The rooms are also very dingy-the lighting is horrible.  I feel sorry for anyone who has to stay more than a day because your skin, hair, and clothes will no doubt reek of the urine smell.  Don't let the neat appearance of the lobby and website photos fool  you.  This place is a dump.  Couldn't wait to check out!"MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>"In order to prepare yourself for a stay at this hotel you should sleep with a diaper that has been soaking in urine for a few days.  The room stank!  When I asked for another room the lady at the desk obliged, but made no effort to check the room or ask questions.  She simply gave us another room, which smelled no better.  I assume all the rooms smell the same because she seemed indifferent to my complaint.  The rooms are also very dingy-the lighting is horrible.  I feel sorry for anyone who has to stay more than a day because your skin, hair, and clothes will no doubt reek of the urine smell.  Don't let the neat appearance of the lobby and website photos fool  you.  This place is a dump.  Couldn't wait to check out!"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r374974661-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>374974661</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>One-Night Business Trip</t>
+  </si>
+  <si>
+    <t>My husband &amp; I stayed one night while I attended a meeting for my job in Baytown. We arrived early Thursday &amp; Although check-in is not til 3pm, they let my poor husband &amp; our dog check in at 11am while I went on to the meeting! The room was clean/comfy/great nights sleep. Our room faced I-10 but we heard absolutely no traffic noise. The hot breakfast was delicious &amp; the breakfast area kept immaculate by the friendly young woman on duty. My meeting was over at 2pm on Friday &amp; they extended our check-out til then with no problem. I would recommend this hotel &amp; will definitely stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband &amp; I stayed one night while I attended a meeting for my job in Baytown. We arrived early Thursday &amp; Although check-in is not til 3pm, they let my poor husband &amp; our dog check in at 11am while I went on to the meeting! The room was clean/comfy/great nights sleep. Our room faced I-10 but we heard absolutely no traffic noise. The hot breakfast was delicious &amp; the breakfast area kept immaculate by the friendly young woman on duty. My meeting was over at 2pm on Friday &amp; they extended our check-out til then with no problem. I would recommend this hotel &amp; will definitely stay there again!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r344752838-Comfort_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -360,6 +520,59 @@
     <t>A little hard to get to but worth the effort. Room was very nice! Clean, comfortable, very quiet to be adjacent to Interstate. Very convinient to shopping and food. Staff was absolutely wonderful, very helpful and friendly- made for an enjoyable stay. Breakfast was very good!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r295116361-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>295116361</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Comfortable, but a little over priced</t>
+  </si>
+  <si>
+    <t>We stayed at this motel on the 4th of July weekend.  It is just off I-10 in Baytown Texas.  The hotel is located in an area where there are many other competitors.  At night they lock a gate to the entrance of the parking lot, which requires you to call the front desk to open the gate; which one can only assume it is not the safest neighborhood.  At least they are offering some sort of security.  The rooms were clean and relatively large. The staff was friendly and the beds were comfortable.  I felt it was over priced inasmuch as we paid over $100 per night at this motel and we just stayed at the Westin Galleria in nearby Houston for well under $100.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this motel on the 4th of July weekend.  It is just off I-10 in Baytown Texas.  The hotel is located in an area where there are many other competitors.  At night they lock a gate to the entrance of the parking lot, which requires you to call the front desk to open the gate; which one can only assume it is not the safest neighborhood.  At least they are offering some sort of security.  The rooms were clean and relatively large. The staff was friendly and the beds were comfortable.  I felt it was over priced inasmuch as we paid over $100 per night at this motel and we just stayed at the Westin Galleria in nearby Houston for well under $100.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r290600840-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>290600840</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>"Comfortable" stay at Comfort Suites Baytown</t>
+  </si>
+  <si>
+    <t>We had a "comfortable" stay at Comfort Suites Baytown. It's a safe secure gated hotel. I made reservations for two rooms a week in advance &amp; promptly received a confirmation email. We had no problems checking in or out. The staff was pleasant. I did notice from one shift to the next some staffers were more friendlier than others; there's always room for improving customer service at any business.
+This hotel was clean, we stayed on the second floor facing the front of the building. I saw no dust or grime left behind on any surface from previous occupants. Our beds were clean, linens crisp. 
+The floors cleanly swept &amp; mopped. Bathroom toilet, shower/tub, sink &amp; all mirrors were clean. The coffee pot, microwave &amp; refrigerator area was clean. Breakfast was good, it was hot. 
+Some folks don't have reasonable expectations when giving hotel reviews. I don't nit pick the petty stuff like paint scratched off a wall or a broke tile here or there. Thats expected daily wear &amp; tear when you have a business. 
+*There may be a ridiculous $1.00 charge for the use of a room safe. If you don't use the safe, be sure to request that the charge is removed from your bill upon check out otherwise you'll be told that they'll adjust it for you, after you've left; they'll forget. (I was told this) It felt like an easy way to make an extra...We had a "comfortable" stay at Comfort Suites Baytown. It's a safe secure gated hotel. I made reservations for two rooms a week in advance &amp; promptly received a confirmation email. We had no problems checking in or out. The staff was pleasant. I did notice from one shift to the next some staffers were more friendlier than others; there's always room for improving customer service at any business.This hotel was clean, we stayed on the second floor facing the front of the building. I saw no dust or grime left behind on any surface from previous occupants. Our beds were clean, linens crisp. The floors cleanly swept &amp; mopped. Bathroom toilet, shower/tub, sink &amp; all mirrors were clean. The coffee pot, microwave &amp; refrigerator area was clean. Breakfast was good, it was hot. Some folks don't have reasonable expectations when giving hotel reviews. I don't nit pick the petty stuff like paint scratched off a wall or a broke tile here or there. Thats expected daily wear &amp; tear when you have a business. *There may be a ridiculous $1.00 charge for the use of a room safe. If you don't use the safe, be sure to request that the charge is removed from your bill upon check out otherwise you'll be told that they'll adjust it for you, after you've left; they'll forget. (I was told this) It felt like an easy way to make an extra $1.00 off each customer. *This is a very clean dog friendly hotel. My only suggestion to the hotel would be to consider a fee modification and only charge a one time fee for your four legged guests &amp; not your daily $25 fee. You already have a fee in place for room damages, don't prevent responsible pet parents from staying longer b/c they can't afford a daily fee. I will give a good review to both Bring Fido &amp; PetsWelcome for other pet owners but please consider a fee modification.Comfort Suites Baytown is within walking distance of plenty sit down restaurants &amp; fast food places to eat. There's a Walgreens across the street &amp; a mall less than a mile away on the other side of the interstate. •A must, if you've never been, be sure you stop at the new Buc-ee's of Baytown, go into the bathroom just because, it will blow your mind! Be safe &amp; courteous in all your travels!Save a life.... Don't text &amp; drive, Don't drink &amp; drive! MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortSuitesBaytown, Manager at Comfort Suites Baytown, responded to this reviewResponded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2015</t>
+  </si>
+  <si>
+    <t>We had a "comfortable" stay at Comfort Suites Baytown. It's a safe secure gated hotel. I made reservations for two rooms a week in advance &amp; promptly received a confirmation email. We had no problems checking in or out. The staff was pleasant. I did notice from one shift to the next some staffers were more friendlier than others; there's always room for improving customer service at any business.
+This hotel was clean, we stayed on the second floor facing the front of the building. I saw no dust or grime left behind on any surface from previous occupants. Our beds were clean, linens crisp. 
+The floors cleanly swept &amp; mopped. Bathroom toilet, shower/tub, sink &amp; all mirrors were clean. The coffee pot, microwave &amp; refrigerator area was clean. Breakfast was good, it was hot. 
+Some folks don't have reasonable expectations when giving hotel reviews. I don't nit pick the petty stuff like paint scratched off a wall or a broke tile here or there. Thats expected daily wear &amp; tear when you have a business. 
+*There may be a ridiculous $1.00 charge for the use of a room safe. If you don't use the safe, be sure to request that the charge is removed from your bill upon check out otherwise you'll be told that they'll adjust it for you, after you've left; they'll forget. (I was told this) It felt like an easy way to make an extra...We had a "comfortable" stay at Comfort Suites Baytown. It's a safe secure gated hotel. I made reservations for two rooms a week in advance &amp; promptly received a confirmation email. We had no problems checking in or out. The staff was pleasant. I did notice from one shift to the next some staffers were more friendlier than others; there's always room for improving customer service at any business.This hotel was clean, we stayed on the second floor facing the front of the building. I saw no dust or grime left behind on any surface from previous occupants. Our beds were clean, linens crisp. The floors cleanly swept &amp; mopped. Bathroom toilet, shower/tub, sink &amp; all mirrors were clean. The coffee pot, microwave &amp; refrigerator area was clean. Breakfast was good, it was hot. Some folks don't have reasonable expectations when giving hotel reviews. I don't nit pick the petty stuff like paint scratched off a wall or a broke tile here or there. Thats expected daily wear &amp; tear when you have a business. *There may be a ridiculous $1.00 charge for the use of a room safe. If you don't use the safe, be sure to request that the charge is removed from your bill upon check out otherwise you'll be told that they'll adjust it for you, after you've left; they'll forget. (I was told this) It felt like an easy way to make an extra $1.00 off each customer. *This is a very clean dog friendly hotel. My only suggestion to the hotel would be to consider a fee modification and only charge a one time fee for your four legged guests &amp; not your daily $25 fee. You already have a fee in place for room damages, don't prevent responsible pet parents from staying longer b/c they can't afford a daily fee. I will give a good review to both Bring Fido &amp; PetsWelcome for other pet owners but please consider a fee modification.Comfort Suites Baytown is within walking distance of plenty sit down restaurants &amp; fast food places to eat. There's a Walgreens across the street &amp; a mall less than a mile away on the other side of the interstate. •A must, if you've never been, be sure you stop at the new Buc-ee's of Baytown, go into the bathroom just because, it will blow your mind! Be safe &amp; courteous in all your travels!Save a life.... Don't text &amp; drive, Don't drink &amp; drive! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r277523509-Comfort_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -438,27 +651,72 @@
     <t>The staff at this hotel were very friendly and the rooms were spacious. The only issue we had was with the sofa bed. It had a horrible smell, but the issue was fixed once reported. Recommended for families and pet owners. A lot of restaurants and a mall nearby.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r249269470-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>249269470</t>
+  </si>
+  <si>
+    <t>01/14/2015</t>
+  </si>
+  <si>
+    <t>night at the ramada</t>
+  </si>
+  <si>
+    <t>Quiet and peaceful stay especially for a busy area.  My only complain was the bathroom could have used a good cleaning especially the tub.  Needs a good scrub.  Could use updating rooms not the prettiest  MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>ComfortSuitesBaytown, Manager at Comfort Suites Baytown, responded to this reviewResponded January 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2015</t>
+  </si>
+  <si>
+    <t>Quiet and peaceful stay especially for a busy area.  My only complain was the bathroom could have used a good cleaning especially the tub.  Needs a good scrub.  Could use updating rooms not the prettiest  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r236914632-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>236914632</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>WoW! Totally blown away....</t>
+  </si>
+  <si>
+    <t>We like to travel mainly taking road trips. We decided to stop on our way from Georgia to San Antonio. Comfort Suites Baytown was the location. After a long drive we pulled in to great service, everyone was so helpful during check in and it was smooth sailing after that. Our Room had this massive deep soak hot tub in it and it was just perfect after the long day. We woke up to breakfast and the front desk even told us of things to do around the area. Lets just say I didnt have to argue to hard with my husband about staying an extra day. Prices are great, Staff was also! I loved it.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>ComfortSuitesBaytown, Manager at Comfort Suites Baytown, responded to this reviewResponded November 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2014</t>
+  </si>
+  <si>
+    <t>We like to travel mainly taking road trips. We decided to stop on our way from Georgia to San Antonio. Comfort Suites Baytown was the location. After a long drive we pulled in to great service, everyone was so helpful during check in and it was smooth sailing after that. Our Room had this massive deep soak hot tub in it and it was just perfect after the long day. We woke up to breakfast and the front desk even told us of things to do around the area. Lets just say I didnt have to argue to hard with my husband about staying an extra day. Prices are great, Staff was also! I loved it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r236913593-Comfort_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
     <t>236913593</t>
   </si>
   <si>
-    <t>10/29/2014</t>
-  </si>
-  <si>
     <t>Comfortable room</t>
   </si>
   <si>
     <t>Visited family in the area, stayed at the comfort and got a 2 bed suite. My kids were excited when we checked in. When we got to the room the kids three themselves on the bed, and let me tell you, they are so comfortable. The room was soo clean. When we woke in the morning we had breakfast and it was so good, my kids really liked the waffles. I would recommend this hotel. And one more tidbit the staff was really nice. MoreShow less</t>
   </si>
   <si>
-    <t>ComfortSuitesBaytown, Manager at Comfort Suites Baytown, responded to this reviewResponded November 3, 2014</t>
-  </si>
-  <si>
-    <t>Responded November 3, 2014</t>
-  </si>
-  <si>
     <t>Visited family in the area, stayed at the comfort and got a 2 bed suite. My kids were excited when we checked in. When we got to the room the kids three themselves on the bed, and let me tell you, they are so comfortable. The room was soo clean. When we woke in the morning we had breakfast and it was so good, my kids really liked the waffles. I would recommend this hotel. And one more tidbit the staff was really nice. More</t>
   </si>
   <si>
@@ -477,9 +735,6 @@
     <t>Right away, I was pleased on how friendly and helpful the staff were. My trip was unplanned, so I didn't know the area very well but I was so grateful that there were nearby restaurants and stores within walking distance. The suite was very comfortable and spacious and the housekeeping was really nice having my room ready when I got there. If you're ever traveling and need a place to stop and rest, this is the best place to go!MoreShow less</t>
   </si>
   <si>
-    <t>October 2014</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -510,6 +765,60 @@
     <t>We were very impressed with our king suite at this hotel. We were greeted with a smile by the front desk clerk the moment we walked through the door. We stayed for 4 days and the friendliness was definitely not a fluke. The room was large and very comfortable. As well, it was kept very clean. We most definitely would stay here again and would recommend to anyone.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r207670939-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>207670939</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Never Got A Chance to Stay Here</t>
+  </si>
+  <si>
+    <t>I booked 4 rooms for an upcoming weekend softball tournament on April 9th, with a credit card hold. Called on May 26th to release 3 of those rooms since we made other arrangements and they have been cancelled and no one can tell me why. 2 Days, 2 Hours later, 2 calls to the hotel and 1 to customer service they told me they do have one available, to call hotel. Called back hotel and they can't book it. It has a hold on it. The manager has a hold on it, the same manager that wouldn't call me back yesterday and is out today. I have traveled a lot and booked a lot of trips and have to say I have never seen anything like this. I will make sure in the future as I plan all my trips and my clients trips I avoid Comfort Suites, since they seem very unwilling to own up to mistakes and work to help correct ones that have been made.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I booked 4 rooms for an upcoming weekend softball tournament on April 9th, with a credit card hold. Called on May 26th to release 3 of those rooms since we made other arrangements and they have been cancelled and no one can tell me why. 2 Days, 2 Hours later, 2 calls to the hotel and 1 to customer service they told me they do have one available, to call hotel. Called back hotel and they can't book it. It has a hold on it. The manager has a hold on it, the same manager that wouldn't call me back yesterday and is out today. I have traveled a lot and booked a lot of trips and have to say I have never seen anything like this. I will make sure in the future as I plan all my trips and my clients trips I avoid Comfort Suites, since they seem very unwilling to own up to mistakes and work to help correct ones that have been made.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r197761524-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>197761524</t>
+  </si>
+  <si>
+    <t>03/17/2014</t>
+  </si>
+  <si>
+    <t>Free MOUSE visit with your stay...</t>
+  </si>
+  <si>
+    <t>Free MOUSE visit with your stay...  
+3/8/14 
+It literally ran under our door across my FEET and into our room on the 2nd floor.  Thank you Comfort Suites for the free "wildlife views"!
+Otherwise... Its a solid 2.5 stars.  The place seemed clean.  The layout is fine.  The room is spacious.  Free Wifi.  But... the staff was really didn't care at all and it would appear that the owners condone theft from the cleaning staff, fortunately we had no issues, but the sign at the front desk says they are not responsible for anything left in the rooms.  Only their staff have keys to the rooms...  
+I told the guy working the front desk about the incident and all he offered was to move me to a different room.  Yet when I asked if that room was any different to keep the mice out he was at a loss for words.  I've stayed in maybe 100 hotel rooms and this is the first time I've ever seen a mouse, much less had one run across my feet!
+Update 3/9/14
+The guy at the front desk told no one and made no notes.  I spoke with the manager in person today and she acted like it was no big deal to have mice in their hotel as she simply made excuses with no offer for resolution.  Apparently this is commonplace here as she mentioned it's happened before.  Her only attempt at...Free MOUSE visit with your stay...  3/8/14 It literally ran under our door across my FEET and into our room on the 2nd floor.  Thank you Comfort Suites for the free "wildlife views"!Otherwise... Its a solid 2.5 stars.  The place seemed clean.  The layout is fine.  The room is spacious.  Free Wifi.  But... the staff was really didn't care at all and it would appear that the owners condone theft from the cleaning staff, fortunately we had no issues, but the sign at the front desk says they are not responsible for anything left in the rooms.  Only their staff have keys to the rooms...  I told the guy working the front desk about the incident and all he offered was to move me to a different room.  Yet when I asked if that room was any different to keep the mice out he was at a loss for words.  I've stayed in maybe 100 hotel rooms and this is the first time I've ever seen a mouse, much less had one run across my feet!Update 3/9/14The guy at the front desk told no one and made no notes.  I spoke with the manager in person today and she acted like it was no big deal to have mice in their hotel as she simply made excuses with no offer for resolution.  Apparently this is commonplace here as she mentioned it's happened before.  Her only attempt at comfort was that they tried to buy mouse traps the day before, but Loews and Home Depot were sold out.  She repeated that twice so as to make sure I understood the depth of their resolve.  This place needs to be shut down for health standards and I have no idea how it's the 2nd highest rated place in town.Needless to say we never ate their free continental breakfast...MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Free MOUSE visit with your stay...  
+3/8/14 
+It literally ran under our door across my FEET and into our room on the 2nd floor.  Thank you Comfort Suites for the free "wildlife views"!
+Otherwise... Its a solid 2.5 stars.  The place seemed clean.  The layout is fine.  The room is spacious.  Free Wifi.  But... the staff was really didn't care at all and it would appear that the owners condone theft from the cleaning staff, fortunately we had no issues, but the sign at the front desk says they are not responsible for anything left in the rooms.  Only their staff have keys to the rooms...  
+I told the guy working the front desk about the incident and all he offered was to move me to a different room.  Yet when I asked if that room was any different to keep the mice out he was at a loss for words.  I've stayed in maybe 100 hotel rooms and this is the first time I've ever seen a mouse, much less had one run across my feet!
+Update 3/9/14
+The guy at the front desk told no one and made no notes.  I spoke with the manager in person today and she acted like it was no big deal to have mice in their hotel as she simply made excuses with no offer for resolution.  Apparently this is commonplace here as she mentioned it's happened before.  Her only attempt at...Free MOUSE visit with your stay...  3/8/14 It literally ran under our door across my FEET and into our room on the 2nd floor.  Thank you Comfort Suites for the free "wildlife views"!Otherwise... Its a solid 2.5 stars.  The place seemed clean.  The layout is fine.  The room is spacious.  Free Wifi.  But... the staff was really didn't care at all and it would appear that the owners condone theft from the cleaning staff, fortunately we had no issues, but the sign at the front desk says they are not responsible for anything left in the rooms.  Only their staff have keys to the rooms...  I told the guy working the front desk about the incident and all he offered was to move me to a different room.  Yet when I asked if that room was any different to keep the mice out he was at a loss for words.  I've stayed in maybe 100 hotel rooms and this is the first time I've ever seen a mouse, much less had one run across my feet!Update 3/9/14The guy at the front desk told no one and made no notes.  I spoke with the manager in person today and she acted like it was no big deal to have mice in their hotel as she simply made excuses with no offer for resolution.  Apparently this is commonplace here as she mentioned it's happened before.  Her only attempt at comfort was that they tried to buy mouse traps the day before, but Loews and Home Depot were sold out.  She repeated that twice so as to make sure I understood the depth of their resolve.  This place needs to be shut down for health standards and I have no idea how it's the 2nd highest rated place in town.Needless to say we never ate their free continental breakfast...More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r174762911-Comfort_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -567,7 +876,43 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r154520728-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>154520728</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>We were in Houston, Texas for a Model Railroad show. We checked into the Comfort Suites, Garth Rd., Baytown, Texas on a Friday afternoon.  The front desk clerk was very helpful as they had us booked for a 3rd floor room and I asked if we could be moved to a first floor instead.  No problem.  The room was very clean as well as the bath room and the room had a  fresh smell.  The hall was not the musky smell usually associated with a motel but had a fresh cleaned smell as well.  The only thing I didn't care for was the breakfast.  There was no meat (bacon or sausage) and the eggs were almost room temp. as well as the orange juice.  There was a Denny's almost on the same parking lot so we eat there.  Much better.  But as far as the hotel.  It was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>We were in Houston, Texas for a Model Railroad show. We checked into the Comfort Suites, Garth Rd., Baytown, Texas on a Friday afternoon.  The front desk clerk was very helpful as they had us booked for a 3rd floor room and I asked if we could be moved to a first floor instead.  No problem.  The room was very clean as well as the bath room and the room had a  fresh smell.  The hall was not the musky smell usually associated with a motel but had a fresh cleaned smell as well.  The only thing I didn't care for was the breakfast.  There was no meat (bacon or sausage) and the eggs were almost room temp. as well as the orange juice.  There was a Denny's almost on the same parking lot so we eat there.  Much better.  But as far as the hotel.  It was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r153109461-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>153109461</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Overall nice, just small incident with ants</t>
+  </si>
+  <si>
+    <t>I really liked the spaciousness of the rooms. I stayed in a room with two other girls and we were able to all get dressed and stay out of each others way. The only problem we had was with one of the beds. When we pulled back the covers there was a couple of small sugar ants, hair, and dirt on the sheet. We had to call for clean sheets at bed time. The next night, we found several of the ants on the bed skirt of the other bed. You could see where someone had dripped something on the skirt and that's what they were after. We had to take the skirt off. It was inconvenient but everything else seemed clean so maybe it was just an isolated incident. Overall it was a nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I really liked the spaciousness of the rooms. I stayed in a room with two other girls and we were able to all get dressed and stay out of each others way. The only problem we had was with one of the beds. When we pulled back the covers there was a couple of small sugar ants, hair, and dirt on the sheet. We had to call for clean sheets at bed time. The next night, we found several of the ants on the bed skirt of the other bed. You could see where someone had dripped something on the skirt and that's what they were after. We had to take the skirt off. It was inconvenient but everything else seemed clean so maybe it was just an isolated incident. Overall it was a nice stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r143925571-Comfort_Suites_Baytown-Baytown_Texas.html</t>
@@ -624,6 +969,45 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r136713328-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>136713328</t>
+  </si>
+  <si>
+    <t>08/09/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Great hotel, nice clean, friendly staff, awesome swimming pool and hot tub love how the lights change colors at night time. Good rates, great location. I didnt stay while there was an event going on in town, but Ive noticed when there is an event going on, the prices go way up, I think that they should stay the same no matter what, some of the towells we received had yellow stains on them other than that, thats my only complaint. Breakfast was great, best food Ive had in a hotel, bisquits and gravy are cooked right, and i liked how one morning they had sausage egg and bisquits to make sandwhiches out of!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great hotel, nice clean, friendly staff, awesome swimming pool and hot tub love how the lights change colors at night time. Good rates, great location. I didnt stay while there was an event going on in town, but Ive noticed when there is an event going on, the prices go way up, I think that they should stay the same no matter what, some of the towells we received had yellow stains on them other than that, thats my only complaint. Breakfast was great, best food Ive had in a hotel, bisquits and gravy are cooked right, and i liked how one morning they had sausage egg and bisquits to make sandwhiches out of!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r129120567-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>129120567</t>
+  </si>
+  <si>
+    <t>04/30/2012</t>
+  </si>
+  <si>
+    <t>Don't go during races</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel during the NHRA Spring Nationals.  I find it pretty disgusting that just because there's an event going on that greedy hotels jack up their prices. After taxes and fees I ended up paying almost $200 a night for a $100 room.  We needed the pull-out couch but it didn't have linens, so I called the front desk thinking they would some bring up.  The desk clerk literally asked me to come down to the front desk and get the stuff.  They gave me the sheets and a blanket, but said they didn't have any pillows.  The manager said "Well you have 5 pillows on the bed, can't you just use one of them?  The linens and blanket were discolored and didn't give me a feeling of cleanliness.  Another set didn't help, it appears all of their sheets and blankets need to be replaced.The redeeming qualities of this place are good showers with plenty of hot water and pressure.  I also liked their breakfast, lots of choices and good creamed beef and biscuits.Overall I'd give this joint a better rating if they didn't rape you on the price just because you wanted to come over and enjoy the races. If they're going to charge $200 a night then they should provide a $200 a night experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel during the NHRA Spring Nationals.  I find it pretty disgusting that just because there's an event going on that greedy hotels jack up their prices. After taxes and fees I ended up paying almost $200 a night for a $100 room.  We needed the pull-out couch but it didn't have linens, so I called the front desk thinking they would some bring up.  The desk clerk literally asked me to come down to the front desk and get the stuff.  They gave me the sheets and a blanket, but said they didn't have any pillows.  The manager said "Well you have 5 pillows on the bed, can't you just use one of them?  The linens and blanket were discolored and didn't give me a feeling of cleanliness.  Another set didn't help, it appears all of their sheets and blankets need to be replaced.The redeeming qualities of this place are good showers with plenty of hot water and pressure.  I also liked their breakfast, lots of choices and good creamed beef and biscuits.Overall I'd give this joint a better rating if they didn't rape you on the price just because you wanted to come over and enjoy the races. If they're going to charge $200 a night then they should provide a $200 a night experience.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r127893745-Comfort_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -639,9 +1023,6 @@
     <t>the staff at this location are always very friendly &amp; helpful. you can expect clean rooms, etc.cassie who usually works the morning she goes out of her way to accomadate the patrons. the hotel is very beautiful inside, and the outside is kept clean as well. you will most certainly enjoy your stay. there are many restaurants to choose from in the area , they also serve a great breakfast as well.MoreShow less</t>
   </si>
   <si>
-    <t>April 2012</t>
-  </si>
-  <si>
     <t>csbaytown, General Manager at Comfort Suites Baytown, responded to this reviewResponded May 28, 2012</t>
   </si>
   <si>
@@ -690,6 +1071,48 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r119723916-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>119723916</t>
+  </si>
+  <si>
+    <t>10/25/2011</t>
+  </si>
+  <si>
+    <t>Impressed</t>
+  </si>
+  <si>
+    <t>Whole working in the area, I stayed here several times when the Hotel was new.Also stayed once with wife and kids about 4-5 years ago. What is so impressive is that The hotel is still like new and I am particular about these things. It is in great condition, very clean, quiet, comfortable. Breakfast was decent in comparison. All staff that I interacted with we're obviously well trained to be customer service oriented with a special thanks to front desk manager Kafi. Good job Kafi and all of management, I am seldom this impressed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r117635403-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>117635403</t>
+  </si>
+  <si>
+    <t>09/03/2011</t>
+  </si>
+  <si>
+    <t>The only place I'll stay in Baytown</t>
+  </si>
+  <si>
+    <t>I stayed here for 53 days while working night shift.  The staff was very friendly and went out of their way to accomidate me. The bed was comfortable, the room was nice. I will stay here again when working in Baytown.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>cdockerybaytown, Front Office Manager at Comfort Suites Baytown, responded to this reviewResponded September 7, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2011</t>
+  </si>
+  <si>
+    <t>I stayed here for 53 days while working night shift.  The staff was very friendly and went out of their way to accomidate me. The bed was comfortable, the room was nice. I will stay here again when working in Baytown.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r117422339-Comfort_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -703,15 +1126,6 @@
   </si>
   <si>
     <t>Cafe, the front desk lady did a very great job of making me and my co-worker here on business, great.  She was always courteous and willing to help whenever we had a request.MoreShow less</t>
-  </si>
-  <si>
-    <t>August 2011</t>
-  </si>
-  <si>
-    <t>cdockerybaytown, Front Office Manager at Comfort Suites Baytown, responded to this reviewResponded September 7, 2011</t>
-  </si>
-  <si>
-    <t>Responded September 7, 2011</t>
   </si>
   <si>
     <t>Cafe, the front desk lady did a very great job of making me and my co-worker here on business, great.  She was always courteous and willing to help whenever we had a request.More</t>
@@ -773,6 +1187,54 @@
 Some unusual requests were made by members of our group and the front desk staff went out of their way to accommodate our needs. They were more than...We stayed at the Comfort Suites-Baytown for two nights while attending a wedding nearby. I did not see any of the problems reported by previous reviewers. I was impressed with the building, room, and service. I did think the regular price of the room was a little high but we received a group discount that brought the price down to reasonable. After seeing the cleanliness of the hotel I think that the regular price might even be worth the money!The first thing that struck us as we walked into the lobby was a clean, lemony smell. Service at check-in was great. We were early but our room was ready so we were given our keys. The room was just as clean! The bed was one of the most comfortable I've ever slept in. I opened my door in the afternoon to the smell of fresh baked cookies. They were still warm when I made it down to the lobby. Breakfast was about average. They had the usual breads and cereals then also an egg, meat, and waffle iron. The location was very close to major roads. We were on the road-side of the building but were not bothered by traffic sounds. The parking lot was well lit and seemed very safe. Some unusual requests were made by members of our group and the front desk staff went out of their way to accommodate our needs. They were more than friendly and helpful. Also, we tried to request that our bed not be made and the floor vacuumed since we were only staying two nights but the Hotel housekeeper's conscience wouldn't let her leave until she just cleaned "just one more thing." We wanted to make things easier for her but she insisted she do her best job. There is a small pool, a hot tub, and a fitness center located at the first floor level. Several restaurants are within walking distance. I was very happy with this hotel stay and would return here if I find myself in Baytown again!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r59839588-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>59839588</t>
+  </si>
+  <si>
+    <t>03/29/2010</t>
+  </si>
+  <si>
+    <t>Spotless New Hotel</t>
+  </si>
+  <si>
+    <t>Stayed at the Comfort Suites in Baytown for 2 nights for a friend's wedding.  The property is new and has been maintained nicely, everything is spotless.  The rooms are spacious and the beds/linens are comfortable.  The lighting in the bathroom was a little dark but the facilitie were nice.  Breakfast was standard continental fare plus two hot items (sausage patties and eggs).  Free wifi was handy but a little inconsistent (went out twice during my stay). I do have one recommendation: with all the modern amenities, why not implement a temperature controlled AC/heating system?  The old "warm/cold" with low, medium, and high settings seemed more motel than hotel.  I had a hard time controlling the temperature in my room so that it wasn't too hot or too cold.MoreShow less</t>
+  </si>
+  <si>
+    <t>CDoc2010, Manager at Comfort Suites Baytown, responded to this reviewResponded April 27, 2011</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2011</t>
+  </si>
+  <si>
+    <t>Stayed at the Comfort Suites in Baytown for 2 nights for a friend's wedding.  The property is new and has been maintained nicely, everything is spotless.  The rooms are spacious and the beds/linens are comfortable.  The lighting in the bathroom was a little dark but the facilitie were nice.  Breakfast was standard continental fare plus two hot items (sausage patties and eggs).  Free wifi was handy but a little inconsistent (went out twice during my stay). I do have one recommendation: with all the modern amenities, why not implement a temperature controlled AC/heating system?  The old "warm/cold" with low, medium, and high settings seemed more motel than hotel.  I had a hard time controlling the temperature in my room so that it wasn't too hot or too cold.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r57900435-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>57900435</t>
+  </si>
+  <si>
+    <t>03/06/2010</t>
+  </si>
+  <si>
+    <t>NO CUSTOMER SERVICE WHO CARES!</t>
+  </si>
+  <si>
+    <t>Drive halfway to Baytown from Dallas to stay and have to turn around due to a fire at yur home they will still charge you full price they do not care! All of the attendants at the front desk will give you the run around. I am done with Comforts Suites and Choice Hotels....MoreShow less</t>
+  </si>
+  <si>
+    <t>CDoc2010, Manager at Comfort Suites Baytown, responded to this reviewResponded April 25, 2011</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2011</t>
+  </si>
+  <si>
+    <t>Drive halfway to Baytown from Dallas to stay and have to turn around due to a fire at yur home they will still charge you full price they do not care! All of the attendants at the front desk will give you the run around. I am done with Comforts Suites and Choice Hotels....More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r48514949-Comfort_Suites_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -806,12 +1268,6 @@
     <t>Stay next door or elsewhere, not worth the price paid!!MoreShow less</t>
   </si>
   <si>
-    <t>CDoc2010, Manager at Comfort Suites Baytown, responded to this reviewResponded April 25, 2011</t>
-  </si>
-  <si>
-    <t>Responded April 25, 2011</t>
-  </si>
-  <si>
     <t>Stay next door or elsewhere, not worth the price paid!!More</t>
   </si>
   <si>
@@ -834,6 +1290,48 @@
   </si>
   <si>
     <t>Stayed several weeks at this great hotel on business. Super clean, friendly staff and overall well managed hotel. I like the fact that it is not  located right on top of the interstate like many hotels I've stayed. Being a couple of hundred yards away created a quieter experience. I preferred the upper north side which had a nice view  of green fields.Very quiet.  All of the best restaurants and stores are conviently located. My coworkers also use this same hotel and recommended it to me. It's new, reasonably priced and really nice. Has LCD television, sofa area, refridge and microwave.  Easy wireless access at no extra charge. Nice excercise room and the pool is really clean and fairly private. I found the breakfast bar better than average  and well attended. The waffle maker is great and the brewed coffee is rich (better than starbucks imho). I've stayed at many hotels in this price range over the past year and this is my favorite. Very nice and highly recommend. Oh yeah, 25 minutes from downtown Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r18051650-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>18051650</t>
+  </si>
+  <si>
+    <t>07/19/2008</t>
+  </si>
+  <si>
+    <t>High Crime Area</t>
+  </si>
+  <si>
+    <t>Security cameras are conviently broken in this high crime area. Car got broken into with severe damage to door and had $2500.00 of merchandise stolen from car. Other cars were broken into as well. With no security around, this hotel is a dream come true for thieves. Do not stay here!!!! My family is still crying in Louisiana!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>Security cameras are conviently broken in this high crime area. Car got broken into with severe damage to door and had $2500.00 of merchandise stolen from car. Other cars were broken into as well. With no security around, this hotel is a dream come true for thieves. Do not stay here!!!! My family is still crying in Louisiana!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r6504599-Comfort_Suites_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>6504599</t>
+  </si>
+  <si>
+    <t>12/26/2006</t>
+  </si>
+  <si>
+    <t>Better Than Expected</t>
+  </si>
+  <si>
+    <t>Cleaner than expected, and the rooms were decorated better than the usual Choice Hotels establishment.  Tile bathrooms and tile accents in the room, crown moulding, clean carpets.  The exercise room had a "universal" style weight training machine, a treadmill, and a stationary bike.  The business center provided online access.  The breakfast was somewhat disappointing, but I didn't stay there for the food.  The bed was comfortable.  I didn't notice any noise from either the interstate or Garth Road.  The front desk even fulfilled my advance request for extra pillows and placed three extra pillows in my room.  There is a Denny's and Starbucks within easy walking distance (across parking lots).MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2006</t>
+  </si>
+  <si>
+    <t>Cleaner than expected, and the rooms were decorated better than the usual Choice Hotels establishment.  Tile bathrooms and tile accents in the room, crown moulding, clean carpets.  The exercise room had a "universal" style weight training machine, a treadmill, and a stationary bike.  The business center provided online access.  The breakfast was somewhat disappointing, but I didn't stay there for the food.  The bed was comfortable.  I didn't notice any noise from either the interstate or Garth Road.  The front desk even fulfilled my advance request for extra pillows and placed three extra pillows in my room.  There is a Denny's and Starbucks within easy walking distance (across parking lots).More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d534645-r5029811-Comfort_Suites_Baytown-Baytown_Texas.html</t>
@@ -1416,7 +1914,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1424,25 +1922,19 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1458,39 +1950,41 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="O3" t="s">
-        <v>52</v>
-      </c>
       <c r="P3" t="n">
         <v>5</v>
       </c>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
@@ -1535,36 +2029,46 @@
         <v>64</v>
       </c>
       <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
       <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" t="s">
+        <v>61</v>
+      </c>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1601,27 +2105,33 @@
         <v>73</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
         <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1658,33 +2168,35 @@
         <v>80</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
         <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -1700,7 +2212,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1709,36 +2221,32 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>3</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -1761,7 +2269,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1770,25 +2278,25 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1802,7 +2310,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
@@ -1818,7 +2326,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1827,43 +2335,43 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
         <v>52</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>102</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
         <v>103</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -1900,37 +2408,27 @@
         <v>109</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
         <v>110</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>111</v>
-      </c>
-      <c r="X10" t="s">
-        <v>112</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
@@ -1946,47 +2444,43 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
         <v>114</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>115</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
         <v>116</v>
       </c>
-      <c r="K11" t="s">
+      <c r="O11" t="s">
         <v>117</v>
       </c>
-      <c r="L11" t="s">
-        <v>118</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
         <v>3</v>
       </c>
-      <c r="N11" t="s">
-        <v>119</v>
-      </c>
-      <c r="O11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>3</v>
@@ -1994,14 +2488,10 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>120</v>
-      </c>
-      <c r="X11" t="s">
-        <v>121</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2507,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2026,49 +2516,43 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>129</v>
-      </c>
-      <c r="X12" t="s">
-        <v>130</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
@@ -2084,7 +2568,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2093,43 +2577,45 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
         <v>52</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>137</v>
-      </c>
-      <c r="X13" t="s">
-        <v>138</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
@@ -2145,7 +2631,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2154,39 +2640,43 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>145</v>
-      </c>
-      <c r="X14" t="s">
-        <v>146</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15">
@@ -2202,7 +2692,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2211,47 +2701,39 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>155</v>
-      </c>
-      <c r="X15" t="s">
-        <v>156</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
@@ -2267,7 +2749,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2276,47 +2758,43 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="X16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Y16" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
@@ -2332,7 +2810,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2341,49 +2819,49 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="O17" t="s">
         <v>52</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>159</v>
+      </c>
+      <c r="X17" t="s">
+        <v>160</v>
+      </c>
       <c r="Y17" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
@@ -2399,7 +2877,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2408,41 +2886,37 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="n">
         <v>2</v>
       </c>
-      <c r="N18" t="s">
-        <v>169</v>
-      </c>
-      <c r="O18" t="s">
-        <v>75</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
       <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2450,7 +2924,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
@@ -2466,7 +2940,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2475,49 +2949,43 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>183</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>174</v>
+      </c>
+      <c r="X19" t="s">
+        <v>175</v>
+      </c>
       <c r="Y19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
@@ -2533,7 +3001,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2542,49 +3010,53 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="O20" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
         <v>5</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>183</v>
+      </c>
+      <c r="X20" t="s">
+        <v>184</v>
+      </c>
       <c r="Y20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
@@ -2600,42 +3072,42 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s">
         <v>190</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
         <v>191</v>
       </c>
-      <c r="J21" t="s">
-        <v>192</v>
-      </c>
-      <c r="K21" t="s">
-        <v>193</v>
-      </c>
-      <c r="L21" t="s">
-        <v>194</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -2644,10 +3116,14 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>192</v>
+      </c>
+      <c r="X21" t="s">
+        <v>193</v>
+      </c>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
@@ -2663,58 +3139,52 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
         <v>196</v>
       </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>197</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>198</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>199</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>191</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
         <v>200</v>
       </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="X22" t="s">
         <v>201</v>
       </c>
-      <c r="O22" t="s">
-        <v>183</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
-      <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
@@ -2730,7 +3200,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2739,53 +3209,45 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s">
-        <v>82</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="X23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Y23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24">
@@ -2801,7 +3263,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2810,38 +3272,34 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
       </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
         <v>5</v>
       </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -2850,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="X24" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="Y24" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25">
@@ -2872,58 +3330,48 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" t="s">
+        <v>214</v>
+      </c>
+      <c r="K25" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" t="s">
+        <v>224</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
         <v>218</v>
       </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="X25" t="s">
         <v>219</v>
       </c>
-      <c r="J25" t="s">
-        <v>220</v>
-      </c>
-      <c r="K25" t="s">
-        <v>221</v>
-      </c>
-      <c r="L25" t="s">
-        <v>222</v>
-      </c>
-      <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s">
-        <v>223</v>
-      </c>
-      <c r="O25" t="s">
-        <v>82</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
-      <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
@@ -2939,7 +3387,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -2948,33 +3396,31 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K26" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="O26" t="s">
-        <v>75</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
@@ -2984,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="X26" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Y26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27">
@@ -3006,7 +3452,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3015,49 +3461,47 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J27" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="O27" t="s">
-        <v>82</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
       <c r="R27" t="n">
         <v>5</v>
       </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>232</v>
+      </c>
+      <c r="X27" t="s">
+        <v>233</v>
+      </c>
       <c r="Y27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
@@ -3073,7 +3517,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3082,53 +3526,41 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s">
-        <v>82</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>246</v>
-      </c>
-      <c r="X28" t="s">
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
         <v>247</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="29">
@@ -3144,50 +3576,50 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
         <v>249</v>
       </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>250</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>251</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>252</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
         <v>253</v>
       </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>254</v>
-      </c>
       <c r="O29" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3195,7 +3627,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30">
@@ -3232,41 +3664,37 @@
         <v>259</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="O30" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>260</v>
-      </c>
-      <c r="X30" t="s">
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
         <v>261</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="31">
@@ -3282,50 +3710,50 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
         <v>263</v>
       </c>
-      <c r="G31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>264</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>265</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>266</v>
       </c>
-      <c r="L31" t="s">
-        <v>267</v>
-      </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="O31" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3333,7 +3761,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
@@ -3349,44 +3777,50 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>269</v>
+      </c>
+      <c r="J32" t="s">
         <v>270</v>
       </c>
-      <c r="G32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>271</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
         <v>272</v>
       </c>
-      <c r="K32" t="s">
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
         <v>273</v>
       </c>
-      <c r="L32" t="s">
-        <v>274</v>
-      </c>
-      <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
+      <c r="O32" t="s">
+        <v>97</v>
+      </c>
       <c r="P32" t="n">
         <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3394,7 +3828,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33">
@@ -3410,48 +3844,50 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
+        <v>274</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
         <v>275</v>
       </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>276</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>277</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>278</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>279</v>
       </c>
-      <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>280</v>
-      </c>
       <c r="O33" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
       <c r="S33" t="n">
         <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3459,7 +3895,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34">
@@ -3504,11 +3940,13 @@
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
-      </c>
-      <c r="R34" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -3520,7 +3958,1544 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>287</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>288</v>
+      </c>
+      <c r="J35" t="s">
+        <v>289</v>
+      </c>
+      <c r="K35" t="s">
+        <v>290</v>
+      </c>
+      <c r="L35" t="s">
+        <v>291</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>292</v>
+      </c>
+      <c r="O35" t="s">
+        <v>97</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>293</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>294</v>
+      </c>
+      <c r="J36" t="s">
+        <v>295</v>
+      </c>
+      <c r="K36" t="s">
+        <v>296</v>
+      </c>
+      <c r="L36" t="s">
+        <v>297</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>299</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>300</v>
+      </c>
+      <c r="J37" t="s">
+        <v>301</v>
+      </c>
+      <c r="K37" t="s">
+        <v>302</v>
+      </c>
+      <c r="L37" t="s">
+        <v>303</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>304</v>
+      </c>
+      <c r="O37" t="s">
+        <v>97</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>305</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>306</v>
+      </c>
+      <c r="J38" t="s">
+        <v>307</v>
+      </c>
+      <c r="K38" t="s">
+        <v>308</v>
+      </c>
+      <c r="L38" t="s">
+        <v>309</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>304</v>
+      </c>
+      <c r="O38" t="s">
+        <v>231</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>311</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>312</v>
+      </c>
+      <c r="J39" t="s">
+        <v>313</v>
+      </c>
+      <c r="K39" t="s">
+        <v>314</v>
+      </c>
+      <c r="L39" t="s">
+        <v>315</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>316</v>
+      </c>
+      <c r="O39" t="s">
+        <v>231</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>318</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>319</v>
+      </c>
+      <c r="J40" t="s">
+        <v>320</v>
+      </c>
+      <c r="K40" t="s">
+        <v>321</v>
+      </c>
+      <c r="L40" t="s">
+        <v>322</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>316</v>
+      </c>
+      <c r="O40" t="s">
+        <v>117</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>323</v>
+      </c>
+      <c r="X40" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>326</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>327</v>
+      </c>
+      <c r="J41" t="s">
+        <v>328</v>
+      </c>
+      <c r="K41" t="s">
+        <v>329</v>
+      </c>
+      <c r="L41" t="s">
+        <v>330</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>331</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>323</v>
+      </c>
+      <c r="X41" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>333</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>334</v>
+      </c>
+      <c r="J42" t="s">
+        <v>335</v>
+      </c>
+      <c r="K42" t="s">
+        <v>336</v>
+      </c>
+      <c r="L42" t="s">
+        <v>337</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>338</v>
+      </c>
+      <c r="O42" t="s">
+        <v>117</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>339</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>340</v>
+      </c>
+      <c r="J43" t="s">
+        <v>341</v>
+      </c>
+      <c r="K43" t="s">
+        <v>342</v>
+      </c>
+      <c r="L43" t="s">
+        <v>343</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>344</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>345</v>
+      </c>
+      <c r="J44" t="s">
+        <v>346</v>
+      </c>
+      <c r="K44" t="s">
+        <v>347</v>
+      </c>
+      <c r="L44" t="s">
+        <v>348</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>349</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>350</v>
+      </c>
+      <c r="X44" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>353</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>354</v>
+      </c>
+      <c r="J45" t="s">
+        <v>355</v>
+      </c>
+      <c r="K45" t="s">
+        <v>356</v>
+      </c>
+      <c r="L45" t="s">
+        <v>357</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>349</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>350</v>
+      </c>
+      <c r="X45" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>359</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>360</v>
+      </c>
+      <c r="J46" t="s">
+        <v>361</v>
+      </c>
+      <c r="K46" t="s">
+        <v>362</v>
+      </c>
+      <c r="L46" t="s">
+        <v>363</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>364</v>
+      </c>
+      <c r="O46" t="s">
+        <v>117</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>366</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>367</v>
+      </c>
+      <c r="J47" t="s">
+        <v>368</v>
+      </c>
+      <c r="K47" t="s">
+        <v>369</v>
+      </c>
+      <c r="L47" t="s">
+        <v>370</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>371</v>
+      </c>
+      <c r="O47" t="s">
+        <v>117</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>372</v>
+      </c>
+      <c r="X47" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>375</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>376</v>
+      </c>
+      <c r="J48" t="s">
+        <v>377</v>
+      </c>
+      <c r="K48" t="s">
+        <v>378</v>
+      </c>
+      <c r="L48" t="s">
+        <v>379</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>371</v>
+      </c>
+      <c r="O48" t="s">
+        <v>117</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>380</v>
+      </c>
+      <c r="X48" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>383</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>384</v>
+      </c>
+      <c r="J49" t="s">
+        <v>385</v>
+      </c>
+      <c r="K49" t="s">
+        <v>386</v>
+      </c>
+      <c r="L49" t="s">
+        <v>387</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>371</v>
+      </c>
+      <c r="O49" t="s">
+        <v>59</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>388</v>
+      </c>
+      <c r="X49" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>391</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>392</v>
+      </c>
+      <c r="J50" t="s">
+        <v>393</v>
+      </c>
+      <c r="K50" t="s">
+        <v>394</v>
+      </c>
+      <c r="L50" t="s">
+        <v>395</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>396</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>397</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>398</v>
+      </c>
+      <c r="J51" t="s">
+        <v>399</v>
+      </c>
+      <c r="K51" t="s">
+        <v>400</v>
+      </c>
+      <c r="L51" t="s">
+        <v>401</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>396</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>388</v>
+      </c>
+      <c r="X51" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>403</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>404</v>
+      </c>
+      <c r="J52" t="s">
+        <v>405</v>
+      </c>
+      <c r="K52" t="s">
+        <v>406</v>
+      </c>
+      <c r="L52" t="s">
+        <v>407</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>408</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>410</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>411</v>
+      </c>
+      <c r="J53" t="s">
+        <v>412</v>
+      </c>
+      <c r="K53" t="s">
+        <v>413</v>
+      </c>
+      <c r="L53" t="s">
+        <v>414</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>415</v>
+      </c>
+      <c r="O53" t="s">
+        <v>59</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>372</v>
+      </c>
+      <c r="X53" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>417</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>418</v>
+      </c>
+      <c r="J54" t="s">
+        <v>419</v>
+      </c>
+      <c r="K54" t="s">
+        <v>420</v>
+      </c>
+      <c r="L54" t="s">
+        <v>421</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>422</v>
+      </c>
+      <c r="O54" t="s">
+        <v>59</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>424</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>425</v>
+      </c>
+      <c r="J55" t="s">
+        <v>426</v>
+      </c>
+      <c r="K55" t="s">
+        <v>427</v>
+      </c>
+      <c r="L55" t="s">
+        <v>428</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>429</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>430</v>
+      </c>
+      <c r="J56" t="s">
+        <v>431</v>
+      </c>
+      <c r="K56" t="s">
+        <v>432</v>
+      </c>
+      <c r="L56" t="s">
+        <v>433</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>434</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>53160</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>435</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>436</v>
+      </c>
+      <c r="J57" t="s">
+        <v>437</v>
+      </c>
+      <c r="K57" t="s">
+        <v>438</v>
+      </c>
+      <c r="L57" t="s">
+        <v>439</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
